--- a/Code/Results/Cases/Case_3_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9850437871360548</v>
+        <v>0.9850437871360547</v>
       </c>
       <c r="D2">
-        <v>1.006257449888443</v>
+        <v>1.006257449888442</v>
       </c>
       <c r="E2">
-        <v>0.9935409123804624</v>
+        <v>0.9935409123804623</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -436,7 +436,7 @@
         <v>1.03969209083781</v>
       </c>
       <c r="J2">
-        <v>1.007681227479909</v>
+        <v>1.007681227479908</v>
       </c>
       <c r="K2">
         <v>1.017630291458171</v>
@@ -453,13 +453,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9909771985037521</v>
+        <v>0.9909771985037525</v>
       </c>
       <c r="D3">
-        <v>1.010529953062639</v>
+        <v>1.01052995306264</v>
       </c>
       <c r="E3">
-        <v>0.998351138770915</v>
+        <v>0.9983511387709151</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -468,10 +468,10 @@
         <v>1.041358120133388</v>
       </c>
       <c r="J3">
-        <v>1.011716893315744</v>
+        <v>1.011716893315745</v>
       </c>
       <c r="K3">
-        <v>1.021029850995135</v>
+        <v>1.021029850995136</v>
       </c>
       <c r="L3">
         <v>1.009005160649689</v>
@@ -485,13 +485,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9947146406373456</v>
+        <v>0.9947146406373462</v>
       </c>
       <c r="D4">
         <v>1.013221394265758</v>
       </c>
       <c r="E4">
-        <v>1.001387957177089</v>
+        <v>1.00138795717709</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -506,7 +506,7 @@
         <v>1.023162825221971</v>
       </c>
       <c r="L4">
-        <v>1.01146965959387</v>
+        <v>1.011469659593871</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -517,7 +517,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9962625793801514</v>
+        <v>0.9962625793801509</v>
       </c>
       <c r="D5">
         <v>1.014336058474542</v>
@@ -549,13 +549,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.996521150597896</v>
+        <v>0.996521150597897</v>
       </c>
       <c r="D6">
-        <v>1.01452224866472</v>
+        <v>1.014522248664721</v>
       </c>
       <c r="E6">
-        <v>1.00285774875612</v>
+        <v>1.002857748756121</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -564,10 +564,10 @@
         <v>1.042885066738853</v>
       </c>
       <c r="J6">
-        <v>1.015479714738203</v>
+        <v>1.015479714738204</v>
       </c>
       <c r="K6">
-        <v>1.024191236257013</v>
+        <v>1.024191236257014</v>
       </c>
       <c r="L6">
         <v>1.012660505823199</v>
@@ -581,28 +581,28 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9947354143450755</v>
+        <v>0.9947354143450736</v>
       </c>
       <c r="D7">
-        <v>1.013236353658845</v>
+        <v>1.013236353658843</v>
       </c>
       <c r="E7">
-        <v>1.001404851647202</v>
+        <v>1.0014048516472</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04239658020411</v>
+        <v>1.042396580204109</v>
       </c>
       <c r="J7">
-        <v>1.01426861386265</v>
+        <v>1.014268613862648</v>
       </c>
       <c r="K7">
-        <v>1.02317466113047</v>
+        <v>1.023174661130468</v>
       </c>
       <c r="L7">
-        <v>1.011483355091638</v>
+        <v>1.011483355091636</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -613,13 +613,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9870707954369026</v>
+        <v>0.9870707954369035</v>
       </c>
       <c r="D8">
         <v>1.007716943258306</v>
       </c>
       <c r="E8">
-        <v>0.9951827201464442</v>
+        <v>0.995182720146445</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>1.040264712573516</v>
       </c>
       <c r="J8">
-        <v>1.009060811763773</v>
+        <v>1.009060811763774</v>
       </c>
       <c r="K8">
         <v>1.018793388511132</v>
@@ -645,13 +645,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9727305080254984</v>
+        <v>0.972730508025499</v>
       </c>
       <c r="D9">
-        <v>0.9973968937590867</v>
+        <v>0.9973968937590871</v>
       </c>
       <c r="E9">
-        <v>0.9836002802633972</v>
+        <v>0.9836002802633976</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -660,13 +660,13 @@
         <v>1.036145311286086</v>
       </c>
       <c r="J9">
-        <v>0.9992843866889071</v>
+        <v>0.9992843866889077</v>
       </c>
       <c r="K9">
         <v>1.010532346204606</v>
       </c>
       <c r="L9">
-        <v>0.9969651560392959</v>
+        <v>0.9969651560392966</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -677,28 +677,28 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9625263528592117</v>
+        <v>0.9625263528592108</v>
       </c>
       <c r="D10">
-        <v>0.9900655202623633</v>
+        <v>0.9900655202623623</v>
       </c>
       <c r="E10">
-        <v>0.975404270232797</v>
+        <v>0.975404270232796</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033130509636352</v>
+        <v>1.033130509636351</v>
       </c>
       <c r="J10">
-        <v>0.9923099008775863</v>
+        <v>0.9923099008775854</v>
       </c>
       <c r="K10">
-        <v>1.004616491767116</v>
+        <v>1.004616491767115</v>
       </c>
       <c r="L10">
-        <v>0.9902322768878962</v>
+        <v>0.9902322768878953</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,28 +709,28 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9579340458836482</v>
+        <v>0.9579340458836487</v>
       </c>
       <c r="D11">
-        <v>0.9867708243824159</v>
+        <v>0.9867708243824164</v>
       </c>
       <c r="E11">
-        <v>0.9717279802741824</v>
+        <v>0.9717279802741828</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031755148273493</v>
+        <v>1.031755148273494</v>
       </c>
       <c r="J11">
-        <v>0.9891679260725005</v>
+        <v>0.9891679260725008</v>
       </c>
       <c r="K11">
-        <v>1.001946611536957</v>
+        <v>1.001946611536958</v>
       </c>
       <c r="L11">
-        <v>0.9872035138301447</v>
+        <v>0.9872035138301449</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,13 +741,13 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9562001244550539</v>
+        <v>0.9562001244550549</v>
       </c>
       <c r="D12">
-        <v>0.9855277278342847</v>
+        <v>0.9855277278342854</v>
       </c>
       <c r="E12">
-        <v>0.9703418949523718</v>
+        <v>0.9703418949523727</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -756,13 +756,13 @@
         <v>1.031233176566634</v>
       </c>
       <c r="J12">
-        <v>0.9879812334277392</v>
+        <v>0.9879812334277401</v>
       </c>
       <c r="K12">
-        <v>1.000937547175821</v>
+        <v>1.000937547175822</v>
       </c>
       <c r="L12">
-        <v>0.9860602432519662</v>
+        <v>0.9860602432519671</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,13 +773,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9565733643255775</v>
+        <v>0.9565733643255774</v>
       </c>
       <c r="D13">
-        <v>0.9857952710197228</v>
+        <v>0.9857952710197226</v>
       </c>
       <c r="E13">
-        <v>0.9706401690374592</v>
+        <v>0.9706401690374594</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -788,13 +788,13 @@
         <v>1.031345653839194</v>
       </c>
       <c r="J13">
-        <v>0.9882366933280706</v>
+        <v>0.9882366933280705</v>
       </c>
       <c r="K13">
         <v>1.001154798752201</v>
       </c>
       <c r="L13">
-        <v>0.9863063256042514</v>
+        <v>0.9863063256042512</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,13 +805,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9577913057412141</v>
+        <v>0.957791305741214</v>
       </c>
       <c r="D14">
-        <v>0.9866684710003794</v>
+        <v>0.986668471000379</v>
       </c>
       <c r="E14">
-        <v>0.9716138338718094</v>
+        <v>0.9716138338718089</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -820,13 +820,13 @@
         <v>1.031712232045957</v>
       </c>
       <c r="J14">
-        <v>0.9890702419769218</v>
+        <v>0.9890702419769214</v>
       </c>
       <c r="K14">
         <v>1.001863562602947</v>
       </c>
       <c r="L14">
-        <v>0.987109390577135</v>
+        <v>0.9871093905771345</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,13 +837,13 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9585379276795643</v>
+        <v>0.9585379276795635</v>
       </c>
       <c r="D15">
-        <v>0.9872038814928255</v>
+        <v>0.9872038814928248</v>
       </c>
       <c r="E15">
-        <v>0.9722109734738561</v>
+        <v>0.9722109734738557</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -852,13 +852,13 @@
         <v>1.031936603137345</v>
       </c>
       <c r="J15">
-        <v>0.9895811774494341</v>
+        <v>0.9895811774494334</v>
       </c>
       <c r="K15">
-        <v>1.002297921776894</v>
+        <v>1.002297921776893</v>
       </c>
       <c r="L15">
-        <v>0.987601728123384</v>
+        <v>0.9876017281233836</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,13 +869,13 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9628272991401882</v>
+        <v>0.9628272991401881</v>
       </c>
       <c r="D16">
         <v>0.9902815430827315</v>
       </c>
       <c r="E16">
-        <v>0.9756454527192743</v>
+        <v>0.9756454527192742</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -884,13 +884,13 @@
         <v>1.033220265037557</v>
       </c>
       <c r="J16">
-        <v>0.9925157457094353</v>
+        <v>0.9925157457094352</v>
       </c>
       <c r="K16">
         <v>1.004791311558991</v>
       </c>
       <c r="L16">
-        <v>0.9904307958492604</v>
+        <v>0.9904307958492603</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -898,16 +898,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9654700073357976</v>
+        <v>0.9654700073357982</v>
       </c>
       <c r="D17">
-        <v>0.9921790660411571</v>
+        <v>0.9921790660411575</v>
       </c>
       <c r="E17">
-        <v>0.977764758389465</v>
+        <v>0.9777647583894654</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -916,13 +916,13 @@
         <v>1.034006347946562</v>
       </c>
       <c r="J17">
-        <v>0.9943229907613141</v>
+        <v>0.9943229907613146</v>
       </c>
       <c r="K17">
         <v>1.006325628409327</v>
       </c>
       <c r="L17">
-        <v>0.9921742172765147</v>
+        <v>0.9921742172765151</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -933,28 +933,28 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9669948281046271</v>
+        <v>0.9669948281046267</v>
       </c>
       <c r="D18">
-        <v>0.9932743556591985</v>
+        <v>0.9932743556591982</v>
       </c>
       <c r="E18">
-        <v>0.9789887274375916</v>
+        <v>0.9789887274375911</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034458152578727</v>
+        <v>1.034458152578726</v>
       </c>
       <c r="J18">
-        <v>0.9953654516459044</v>
+        <v>0.9953654516459037</v>
       </c>
       <c r="K18">
-        <v>1.007210201229488</v>
+        <v>1.007210201229487</v>
       </c>
       <c r="L18">
-        <v>0.9931802743887949</v>
+        <v>0.9931802743887946</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -965,13 +965,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9675119903563114</v>
+        <v>0.9675119903563115</v>
       </c>
       <c r="D19">
         <v>0.9936459057921727</v>
       </c>
       <c r="E19">
-        <v>0.9794040428939003</v>
+        <v>0.9794040428939007</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -986,7 +986,7 @@
         <v>1.00751009024589</v>
       </c>
       <c r="L19">
-        <v>0.9935215083544637</v>
+        <v>0.9935215083544641</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -997,13 +997,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9651882033893524</v>
+        <v>0.9651882033893516</v>
       </c>
       <c r="D20">
-        <v>0.9919766782521814</v>
+        <v>0.9919766782521805</v>
       </c>
       <c r="E20">
-        <v>0.9775386471694808</v>
+        <v>0.9775386471694802</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1012,13 +1012,13 @@
         <v>1.033922706247081</v>
       </c>
       <c r="J20">
-        <v>0.994130306985251</v>
+        <v>0.9941303069852501</v>
       </c>
       <c r="K20">
         <v>1.00616209065798</v>
       </c>
       <c r="L20">
-        <v>0.991988295453025</v>
+        <v>0.9919882954530244</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1029,28 +1029,28 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9574334462526038</v>
+        <v>0.9574334462526025</v>
       </c>
       <c r="D21">
-        <v>0.9864118787837634</v>
+        <v>0.986411878783762</v>
       </c>
       <c r="E21">
-        <v>0.9713276931254929</v>
+        <v>0.9713276931254915</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031604595430536</v>
+        <v>1.031604595430535</v>
       </c>
       <c r="J21">
-        <v>0.9888253354683505</v>
+        <v>0.9888253354683493</v>
       </c>
       <c r="K21">
-        <v>1.001655337581503</v>
+        <v>1.001655337581502</v>
       </c>
       <c r="L21">
-        <v>0.9868734222495528</v>
+        <v>0.9868734222495515</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9523937874723734</v>
+        <v>0.9523937874723716</v>
       </c>
       <c r="D22">
-        <v>0.9828006930871218</v>
+        <v>0.9828006930871203</v>
       </c>
       <c r="E22">
-        <v>0.9673029296436829</v>
+        <v>0.9673029296436816</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030082538315039</v>
+        <v>1.030082538315038</v>
       </c>
       <c r="J22">
-        <v>0.9853756109891185</v>
+        <v>0.985375610989117</v>
       </c>
       <c r="K22">
-        <v>0.9987207488370631</v>
+        <v>0.9987207488370615</v>
       </c>
       <c r="L22">
-        <v>0.9835511933166837</v>
+        <v>0.9835511933166825</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1093,13 +1093,13 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9550816757064895</v>
+        <v>0.9550816757064882</v>
       </c>
       <c r="D23">
-        <v>0.9847261530229199</v>
+        <v>0.9847261530229191</v>
       </c>
       <c r="E23">
-        <v>0.96944838855256</v>
+        <v>0.9694483885525587</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1108,13 +1108,13 @@
         <v>1.030895744865282</v>
       </c>
       <c r="J23">
-        <v>0.9872156768062679</v>
+        <v>0.9872156768062668</v>
       </c>
       <c r="K23">
-        <v>1.000286396867338</v>
+        <v>1.000286396867337</v>
       </c>
       <c r="L23">
-        <v>0.9853228868424863</v>
+        <v>0.9853228868424848</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1125,13 +1125,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9653155896932994</v>
+        <v>0.965315589693301</v>
       </c>
       <c r="D24">
-        <v>0.9920681640393065</v>
+        <v>0.9920681640393076</v>
       </c>
       <c r="E24">
-        <v>0.9776408546513254</v>
+        <v>0.9776408546513268</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1140,13 +1140,13 @@
         <v>1.033960521004736</v>
       </c>
       <c r="J24">
-        <v>0.9942174084716153</v>
+        <v>0.9942174084716168</v>
       </c>
       <c r="K24">
-        <v>1.00623601828914</v>
+        <v>1.006236018289142</v>
       </c>
       <c r="L24">
-        <v>0.9920723389652244</v>
+        <v>0.9920723389652256</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1157,13 +1157,13 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9765447575614187</v>
+        <v>0.9765447575614179</v>
       </c>
       <c r="D25">
-        <v>1.000140338731663</v>
+        <v>1.000140338731662</v>
       </c>
       <c r="E25">
-        <v>0.9866736052848711</v>
+        <v>0.9866736052848705</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1172,13 +1172,13 @@
         <v>1.037255663179731</v>
       </c>
       <c r="J25">
-        <v>1.001888114647961</v>
+        <v>1.00188811464796</v>
       </c>
       <c r="K25">
         <v>1.012736476512625</v>
       </c>
       <c r="L25">
-        <v>0.9994823801435824</v>
+        <v>0.9994823801435817</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9850437871360547</v>
+        <v>0.9850437871360548</v>
       </c>
       <c r="D2">
-        <v>1.006257449888442</v>
+        <v>1.006257449888443</v>
       </c>
       <c r="E2">
-        <v>0.9935409123804623</v>
+        <v>0.9935409123804624</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -436,7 +436,7 @@
         <v>1.03969209083781</v>
       </c>
       <c r="J2">
-        <v>1.007681227479908</v>
+        <v>1.007681227479909</v>
       </c>
       <c r="K2">
         <v>1.017630291458171</v>
@@ -453,13 +453,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9909771985037525</v>
+        <v>0.9909771985037521</v>
       </c>
       <c r="D3">
-        <v>1.01052995306264</v>
+        <v>1.010529953062639</v>
       </c>
       <c r="E3">
-        <v>0.9983511387709151</v>
+        <v>0.998351138770915</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -468,10 +468,10 @@
         <v>1.041358120133388</v>
       </c>
       <c r="J3">
-        <v>1.011716893315745</v>
+        <v>1.011716893315744</v>
       </c>
       <c r="K3">
-        <v>1.021029850995136</v>
+        <v>1.021029850995135</v>
       </c>
       <c r="L3">
         <v>1.009005160649689</v>
@@ -485,13 +485,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9947146406373462</v>
+        <v>0.9947146406373456</v>
       </c>
       <c r="D4">
         <v>1.013221394265758</v>
       </c>
       <c r="E4">
-        <v>1.00138795717709</v>
+        <v>1.001387957177089</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -506,7 +506,7 @@
         <v>1.023162825221971</v>
       </c>
       <c r="L4">
-        <v>1.011469659593871</v>
+        <v>1.01146965959387</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -517,7 +517,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9962625793801509</v>
+        <v>0.9962625793801514</v>
       </c>
       <c r="D5">
         <v>1.014336058474542</v>
@@ -549,13 +549,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.996521150597897</v>
+        <v>0.996521150597896</v>
       </c>
       <c r="D6">
-        <v>1.014522248664721</v>
+        <v>1.01452224866472</v>
       </c>
       <c r="E6">
-        <v>1.002857748756121</v>
+        <v>1.00285774875612</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -564,10 +564,10 @@
         <v>1.042885066738853</v>
       </c>
       <c r="J6">
-        <v>1.015479714738204</v>
+        <v>1.015479714738203</v>
       </c>
       <c r="K6">
-        <v>1.024191236257014</v>
+        <v>1.024191236257013</v>
       </c>
       <c r="L6">
         <v>1.012660505823199</v>
@@ -581,28 +581,28 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9947354143450736</v>
+        <v>0.9947354143450755</v>
       </c>
       <c r="D7">
-        <v>1.013236353658843</v>
+        <v>1.013236353658845</v>
       </c>
       <c r="E7">
-        <v>1.0014048516472</v>
+        <v>1.001404851647202</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042396580204109</v>
+        <v>1.04239658020411</v>
       </c>
       <c r="J7">
-        <v>1.014268613862648</v>
+        <v>1.01426861386265</v>
       </c>
       <c r="K7">
-        <v>1.023174661130468</v>
+        <v>1.02317466113047</v>
       </c>
       <c r="L7">
-        <v>1.011483355091636</v>
+        <v>1.011483355091638</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -613,13 +613,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9870707954369035</v>
+        <v>0.9870707954369026</v>
       </c>
       <c r="D8">
         <v>1.007716943258306</v>
       </c>
       <c r="E8">
-        <v>0.995182720146445</v>
+        <v>0.9951827201464442</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>1.040264712573516</v>
       </c>
       <c r="J8">
-        <v>1.009060811763774</v>
+        <v>1.009060811763773</v>
       </c>
       <c r="K8">
         <v>1.018793388511132</v>
@@ -645,13 +645,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.972730508025499</v>
+        <v>0.9727305080254984</v>
       </c>
       <c r="D9">
-        <v>0.9973968937590871</v>
+        <v>0.9973968937590867</v>
       </c>
       <c r="E9">
-        <v>0.9836002802633976</v>
+        <v>0.9836002802633972</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -660,13 +660,13 @@
         <v>1.036145311286086</v>
       </c>
       <c r="J9">
-        <v>0.9992843866889077</v>
+        <v>0.9992843866889071</v>
       </c>
       <c r="K9">
         <v>1.010532346204606</v>
       </c>
       <c r="L9">
-        <v>0.9969651560392966</v>
+        <v>0.9969651560392959</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -677,28 +677,28 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9625263528592108</v>
+        <v>0.9625263528592117</v>
       </c>
       <c r="D10">
-        <v>0.9900655202623623</v>
+        <v>0.9900655202623633</v>
       </c>
       <c r="E10">
-        <v>0.975404270232796</v>
+        <v>0.975404270232797</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033130509636351</v>
+        <v>1.033130509636352</v>
       </c>
       <c r="J10">
-        <v>0.9923099008775854</v>
+        <v>0.9923099008775863</v>
       </c>
       <c r="K10">
-        <v>1.004616491767115</v>
+        <v>1.004616491767116</v>
       </c>
       <c r="L10">
-        <v>0.9902322768878953</v>
+        <v>0.9902322768878962</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,28 +709,28 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9579340458836487</v>
+        <v>0.9579340458836482</v>
       </c>
       <c r="D11">
-        <v>0.9867708243824164</v>
+        <v>0.9867708243824159</v>
       </c>
       <c r="E11">
-        <v>0.9717279802741828</v>
+        <v>0.9717279802741824</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031755148273494</v>
+        <v>1.031755148273493</v>
       </c>
       <c r="J11">
-        <v>0.9891679260725008</v>
+        <v>0.9891679260725005</v>
       </c>
       <c r="K11">
-        <v>1.001946611536958</v>
+        <v>1.001946611536957</v>
       </c>
       <c r="L11">
-        <v>0.9872035138301449</v>
+        <v>0.9872035138301447</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,13 +741,13 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9562001244550549</v>
+        <v>0.9562001244550539</v>
       </c>
       <c r="D12">
-        <v>0.9855277278342854</v>
+        <v>0.9855277278342847</v>
       </c>
       <c r="E12">
-        <v>0.9703418949523727</v>
+        <v>0.9703418949523718</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -756,13 +756,13 @@
         <v>1.031233176566634</v>
       </c>
       <c r="J12">
-        <v>0.9879812334277401</v>
+        <v>0.9879812334277392</v>
       </c>
       <c r="K12">
-        <v>1.000937547175822</v>
+        <v>1.000937547175821</v>
       </c>
       <c r="L12">
-        <v>0.9860602432519671</v>
+        <v>0.9860602432519662</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,13 +773,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9565733643255774</v>
+        <v>0.9565733643255775</v>
       </c>
       <c r="D13">
-        <v>0.9857952710197226</v>
+        <v>0.9857952710197228</v>
       </c>
       <c r="E13">
-        <v>0.9706401690374594</v>
+        <v>0.9706401690374592</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -788,13 +788,13 @@
         <v>1.031345653839194</v>
       </c>
       <c r="J13">
-        <v>0.9882366933280705</v>
+        <v>0.9882366933280706</v>
       </c>
       <c r="K13">
         <v>1.001154798752201</v>
       </c>
       <c r="L13">
-        <v>0.9863063256042512</v>
+        <v>0.9863063256042514</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,13 +805,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.957791305741214</v>
+        <v>0.9577913057412141</v>
       </c>
       <c r="D14">
-        <v>0.986668471000379</v>
+        <v>0.9866684710003794</v>
       </c>
       <c r="E14">
-        <v>0.9716138338718089</v>
+        <v>0.9716138338718094</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -820,13 +820,13 @@
         <v>1.031712232045957</v>
       </c>
       <c r="J14">
-        <v>0.9890702419769214</v>
+        <v>0.9890702419769218</v>
       </c>
       <c r="K14">
         <v>1.001863562602947</v>
       </c>
       <c r="L14">
-        <v>0.9871093905771345</v>
+        <v>0.987109390577135</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,13 +837,13 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9585379276795635</v>
+        <v>0.9585379276795643</v>
       </c>
       <c r="D15">
-        <v>0.9872038814928248</v>
+        <v>0.9872038814928255</v>
       </c>
       <c r="E15">
-        <v>0.9722109734738557</v>
+        <v>0.9722109734738561</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -852,13 +852,13 @@
         <v>1.031936603137345</v>
       </c>
       <c r="J15">
-        <v>0.9895811774494334</v>
+        <v>0.9895811774494341</v>
       </c>
       <c r="K15">
-        <v>1.002297921776893</v>
+        <v>1.002297921776894</v>
       </c>
       <c r="L15">
-        <v>0.9876017281233836</v>
+        <v>0.987601728123384</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,13 +869,13 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9628272991401881</v>
+        <v>0.9628272991401882</v>
       </c>
       <c r="D16">
         <v>0.9902815430827315</v>
       </c>
       <c r="E16">
-        <v>0.9756454527192742</v>
+        <v>0.9756454527192743</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -884,13 +884,13 @@
         <v>1.033220265037557</v>
       </c>
       <c r="J16">
-        <v>0.9925157457094352</v>
+        <v>0.9925157457094353</v>
       </c>
       <c r="K16">
         <v>1.004791311558991</v>
       </c>
       <c r="L16">
-        <v>0.9904307958492603</v>
+        <v>0.9904307958492604</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -898,16 +898,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9654700073357982</v>
+        <v>0.9654700073357976</v>
       </c>
       <c r="D17">
-        <v>0.9921790660411575</v>
+        <v>0.9921790660411571</v>
       </c>
       <c r="E17">
-        <v>0.9777647583894654</v>
+        <v>0.977764758389465</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -916,13 +916,13 @@
         <v>1.034006347946562</v>
       </c>
       <c r="J17">
-        <v>0.9943229907613146</v>
+        <v>0.9943229907613141</v>
       </c>
       <c r="K17">
         <v>1.006325628409327</v>
       </c>
       <c r="L17">
-        <v>0.9921742172765151</v>
+        <v>0.9921742172765147</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -933,28 +933,28 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9669948281046267</v>
+        <v>0.9669948281046271</v>
       </c>
       <c r="D18">
-        <v>0.9932743556591982</v>
+        <v>0.9932743556591985</v>
       </c>
       <c r="E18">
-        <v>0.9789887274375911</v>
+        <v>0.9789887274375916</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034458152578726</v>
+        <v>1.034458152578727</v>
       </c>
       <c r="J18">
-        <v>0.9953654516459037</v>
+        <v>0.9953654516459044</v>
       </c>
       <c r="K18">
-        <v>1.007210201229487</v>
+        <v>1.007210201229488</v>
       </c>
       <c r="L18">
-        <v>0.9931802743887946</v>
+        <v>0.9931802743887949</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -965,13 +965,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9675119903563115</v>
+        <v>0.9675119903563114</v>
       </c>
       <c r="D19">
         <v>0.9936459057921727</v>
       </c>
       <c r="E19">
-        <v>0.9794040428939007</v>
+        <v>0.9794040428939003</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -986,7 +986,7 @@
         <v>1.00751009024589</v>
       </c>
       <c r="L19">
-        <v>0.9935215083544641</v>
+        <v>0.9935215083544637</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -997,13 +997,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9651882033893516</v>
+        <v>0.9651882033893524</v>
       </c>
       <c r="D20">
-        <v>0.9919766782521805</v>
+        <v>0.9919766782521814</v>
       </c>
       <c r="E20">
-        <v>0.9775386471694802</v>
+        <v>0.9775386471694808</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1012,13 +1012,13 @@
         <v>1.033922706247081</v>
       </c>
       <c r="J20">
-        <v>0.9941303069852501</v>
+        <v>0.994130306985251</v>
       </c>
       <c r="K20">
         <v>1.00616209065798</v>
       </c>
       <c r="L20">
-        <v>0.9919882954530244</v>
+        <v>0.991988295453025</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1029,28 +1029,28 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9574334462526025</v>
+        <v>0.9574334462526038</v>
       </c>
       <c r="D21">
-        <v>0.986411878783762</v>
+        <v>0.9864118787837634</v>
       </c>
       <c r="E21">
-        <v>0.9713276931254915</v>
+        <v>0.9713276931254929</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031604595430535</v>
+        <v>1.031604595430536</v>
       </c>
       <c r="J21">
-        <v>0.9888253354683493</v>
+        <v>0.9888253354683505</v>
       </c>
       <c r="K21">
-        <v>1.001655337581502</v>
+        <v>1.001655337581503</v>
       </c>
       <c r="L21">
-        <v>0.9868734222495515</v>
+        <v>0.9868734222495528</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9523937874723716</v>
+        <v>0.9523937874723734</v>
       </c>
       <c r="D22">
-        <v>0.9828006930871203</v>
+        <v>0.9828006930871218</v>
       </c>
       <c r="E22">
-        <v>0.9673029296436816</v>
+        <v>0.9673029296436829</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030082538315038</v>
+        <v>1.030082538315039</v>
       </c>
       <c r="J22">
-        <v>0.985375610989117</v>
+        <v>0.9853756109891185</v>
       </c>
       <c r="K22">
-        <v>0.9987207488370615</v>
+        <v>0.9987207488370631</v>
       </c>
       <c r="L22">
-        <v>0.9835511933166825</v>
+        <v>0.9835511933166837</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1093,13 +1093,13 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9550816757064882</v>
+        <v>0.9550816757064895</v>
       </c>
       <c r="D23">
-        <v>0.9847261530229191</v>
+        <v>0.9847261530229199</v>
       </c>
       <c r="E23">
-        <v>0.9694483885525587</v>
+        <v>0.96944838855256</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1108,13 +1108,13 @@
         <v>1.030895744865282</v>
       </c>
       <c r="J23">
-        <v>0.9872156768062668</v>
+        <v>0.9872156768062679</v>
       </c>
       <c r="K23">
-        <v>1.000286396867337</v>
+        <v>1.000286396867338</v>
       </c>
       <c r="L23">
-        <v>0.9853228868424848</v>
+        <v>0.9853228868424863</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1125,13 +1125,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.965315589693301</v>
+        <v>0.9653155896932994</v>
       </c>
       <c r="D24">
-        <v>0.9920681640393076</v>
+        <v>0.9920681640393065</v>
       </c>
       <c r="E24">
-        <v>0.9776408546513268</v>
+        <v>0.9776408546513254</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1140,13 +1140,13 @@
         <v>1.033960521004736</v>
       </c>
       <c r="J24">
-        <v>0.9942174084716168</v>
+        <v>0.9942174084716153</v>
       </c>
       <c r="K24">
-        <v>1.006236018289142</v>
+        <v>1.00623601828914</v>
       </c>
       <c r="L24">
-        <v>0.9920723389652256</v>
+        <v>0.9920723389652244</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1157,13 +1157,13 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9765447575614179</v>
+        <v>0.9765447575614187</v>
       </c>
       <c r="D25">
-        <v>1.000140338731662</v>
+        <v>1.000140338731663</v>
       </c>
       <c r="E25">
-        <v>0.9866736052848705</v>
+        <v>0.9866736052848711</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1172,13 +1172,13 @@
         <v>1.037255663179731</v>
       </c>
       <c r="J25">
-        <v>1.00188811464796</v>
+        <v>1.001888114647961</v>
       </c>
       <c r="K25">
         <v>1.012736476512625</v>
       </c>
       <c r="L25">
-        <v>0.9994823801435817</v>
+        <v>0.9994823801435824</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_bus/vm_pu.xlsx
@@ -421,28 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9850437871360548</v>
+        <v>0.9850481100997909</v>
       </c>
       <c r="D2">
-        <v>1.006257449888443</v>
+        <v>1.006260785624687</v>
       </c>
       <c r="E2">
-        <v>0.9935409123804624</v>
+        <v>0.9935448309734957</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03969209083781</v>
+        <v>1.039693783357247</v>
       </c>
       <c r="J2">
-        <v>1.007681227479909</v>
+        <v>1.007685415660499</v>
       </c>
       <c r="K2">
-        <v>1.017630291458171</v>
+        <v>1.01763358144778</v>
       </c>
       <c r="L2">
-        <v>1.005090972094279</v>
+        <v>1.005094835194321</v>
+      </c>
+      <c r="N2">
+        <v>1.007714762191998</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,28 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9909771985037521</v>
+        <v>0.9909790107040247</v>
       </c>
       <c r="D3">
-        <v>1.010529953062639</v>
+        <v>1.010531396043594</v>
       </c>
       <c r="E3">
-        <v>0.998351138770915</v>
+        <v>0.9983528748606227</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041358120133388</v>
+        <v>1.041358853132909</v>
       </c>
       <c r="J3">
-        <v>1.011716893315744</v>
+        <v>1.01171865487739</v>
       </c>
       <c r="K3">
-        <v>1.021029850995135</v>
+        <v>1.021031275989345</v>
       </c>
       <c r="L3">
-        <v>1.009005160649689</v>
+        <v>1.009006874434017</v>
+      </c>
+      <c r="N3">
+        <v>1.010439523891678</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -485,28 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9947146406373456</v>
+        <v>0.9947148944601677</v>
       </c>
       <c r="D4">
-        <v>1.013221394265758</v>
+        <v>1.013221659574854</v>
       </c>
       <c r="E4">
-        <v>1.001387957177089</v>
+        <v>1.001388335699098</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042390878343383</v>
+        <v>1.042391013215108</v>
       </c>
       <c r="J4">
-        <v>1.014254519604759</v>
+        <v>1.014254766840968</v>
       </c>
       <c r="K4">
-        <v>1.023162825221971</v>
+        <v>1.023163087431581</v>
       </c>
       <c r="L4">
-        <v>1.01146965959387</v>
+        <v>1.011470033563157</v>
+      </c>
+      <c r="N4">
+        <v>1.012152544067763</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -517,28 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9962625793801514</v>
+        <v>0.996262192758808</v>
       </c>
       <c r="D5">
-        <v>1.014336058474542</v>
+        <v>1.014335839172</v>
       </c>
       <c r="E5">
-        <v>1.002647295281796</v>
+        <v>1.002647115265158</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042814539402703</v>
+        <v>1.042814427883466</v>
       </c>
       <c r="J5">
-        <v>1.015304406906507</v>
+        <v>1.015304030002546</v>
       </c>
       <c r="K5">
-        <v>1.024044144275895</v>
+        <v>1.024043927464515</v>
       </c>
       <c r="L5">
-        <v>1.012490073440232</v>
+        <v>1.012489895527879</v>
+      </c>
+      <c r="N5">
+        <v>1.012861190796036</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -549,28 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.996521150597896</v>
+        <v>0.9965206572732332</v>
       </c>
       <c r="D6">
-        <v>1.01452224866472</v>
+        <v>1.014521948586837</v>
       </c>
       <c r="E6">
-        <v>1.00285774875612</v>
+        <v>1.002857475648059</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042885066738853</v>
+        <v>1.042884914135807</v>
       </c>
       <c r="J6">
-        <v>1.015479714738203</v>
+        <v>1.015479233745897</v>
       </c>
       <c r="K6">
-        <v>1.024191236257013</v>
+        <v>1.02419093957168</v>
       </c>
       <c r="L6">
-        <v>1.012660505823199</v>
+        <v>1.012660235892198</v>
+      </c>
+      <c r="N6">
+        <v>1.01297951436068</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -581,28 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9947354143450755</v>
+        <v>0.9947356595539566</v>
       </c>
       <c r="D7">
-        <v>1.013236353658845</v>
+        <v>1.013236612452339</v>
       </c>
       <c r="E7">
-        <v>1.001404851647202</v>
+        <v>1.001405222659252</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04239658020411</v>
+        <v>1.042396711764139</v>
       </c>
       <c r="J7">
-        <v>1.01426861386265</v>
+        <v>1.014268852711141</v>
       </c>
       <c r="K7">
-        <v>1.02317466113047</v>
+        <v>1.02317491690172</v>
       </c>
       <c r="L7">
-        <v>1.011483355091638</v>
+        <v>1.01148372164298</v>
+      </c>
+      <c r="N7">
+        <v>1.012162057639384</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -613,28 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9870707954369026</v>
+        <v>0.9870742554214262</v>
       </c>
       <c r="D8">
-        <v>1.007716943258306</v>
+        <v>1.007719629086906</v>
       </c>
       <c r="E8">
-        <v>0.9951827201464442</v>
+        <v>0.9951858892650909</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040264712573516</v>
+        <v>1.040266075867075</v>
       </c>
       <c r="J8">
-        <v>1.009060811763773</v>
+        <v>1.009064167729038</v>
       </c>
       <c r="K8">
-        <v>1.018793388511132</v>
+        <v>1.01879603865468</v>
       </c>
       <c r="L8">
-        <v>1.006428342387699</v>
+        <v>1.006431468053736</v>
+      </c>
+      <c r="N8">
+        <v>1.008646279613506</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -645,28 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9727305080254984</v>
+        <v>0.9727401991221776</v>
       </c>
       <c r="D9">
-        <v>0.9973968937590867</v>
+        <v>0.9974042563252494</v>
       </c>
       <c r="E9">
-        <v>0.9836002802633972</v>
+        <v>0.9836088439856711</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036145311286086</v>
+        <v>1.036149038499298</v>
       </c>
       <c r="J9">
-        <v>0.9992843866889071</v>
+        <v>0.9992937079259728</v>
       </c>
       <c r="K9">
-        <v>1.010532346204606</v>
+        <v>1.010539588516734</v>
       </c>
       <c r="L9">
-        <v>0.9969651560392959</v>
+        <v>0.9969735747797367</v>
+      </c>
+      <c r="N9">
+        <v>1.002043899886724</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -677,28 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9625263528592117</v>
+        <v>0.9625406730712598</v>
       </c>
       <c r="D10">
-        <v>0.9900655202623633</v>
+        <v>0.9900763324496673</v>
       </c>
       <c r="E10">
-        <v>0.975404270232797</v>
+        <v>0.9754168145491999</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033130509636352</v>
+        <v>1.033135973435955</v>
       </c>
       <c r="J10">
-        <v>0.9923099008775863</v>
+        <v>0.992323587685479</v>
       </c>
       <c r="K10">
-        <v>1.004616491767116</v>
+        <v>1.004627103597878</v>
       </c>
       <c r="L10">
-        <v>0.9902322768878962</v>
+        <v>0.9902445795074678</v>
+      </c>
+      <c r="N10">
+        <v>0.9973324426402002</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,28 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9579340458836482</v>
+        <v>0.9579505085403367</v>
       </c>
       <c r="D11">
-        <v>0.9867708243824159</v>
+        <v>0.986783225696901</v>
       </c>
       <c r="E11">
-        <v>0.9717279802741824</v>
+        <v>0.9717423585716114</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031755148273493</v>
+        <v>1.031761410248083</v>
       </c>
       <c r="J11">
-        <v>0.9891679260725005</v>
+        <v>0.989183614267653</v>
       </c>
       <c r="K11">
-        <v>1.001946611536957</v>
+        <v>1.00195877068591</v>
       </c>
       <c r="L11">
-        <v>0.9872035138301447</v>
+        <v>0.9872175997832966</v>
+      </c>
+      <c r="N11">
+        <v>0.9952096977220033</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,28 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9562001244550539</v>
+        <v>0.9562174061889601</v>
       </c>
       <c r="D12">
-        <v>0.9855277278342847</v>
+        <v>0.9855407354220402</v>
       </c>
       <c r="E12">
-        <v>0.9703418949523718</v>
+        <v>0.9703569729687277</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031233176566634</v>
+        <v>1.03123974277079</v>
       </c>
       <c r="J12">
-        <v>0.9879812334277392</v>
+        <v>0.9879976835900857</v>
       </c>
       <c r="K12">
-        <v>1.000937547175821</v>
+        <v>1.000950295847333</v>
       </c>
       <c r="L12">
-        <v>0.9860602432519662</v>
+        <v>0.9860750086034855</v>
+      </c>
+      <c r="N12">
+        <v>0.9944079254659933</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,28 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9565733643255775</v>
+        <v>0.9565904692663122</v>
       </c>
       <c r="D13">
-        <v>0.9857952710197228</v>
+        <v>0.9858081478064419</v>
       </c>
       <c r="E13">
-        <v>0.9706401690374592</v>
+        <v>0.9706550960909764</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031345653839194</v>
+        <v>1.03135215442009</v>
       </c>
       <c r="J13">
-        <v>0.9882366933280706</v>
+        <v>0.9882529791728648</v>
       </c>
       <c r="K13">
-        <v>1.001154798752201</v>
+        <v>1.001167420273678</v>
       </c>
       <c r="L13">
-        <v>0.9863063256042514</v>
+        <v>0.9863209444233677</v>
+      </c>
+      <c r="N13">
+        <v>0.9945805247456011</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,28 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9577913057412141</v>
+        <v>0.9578078356121698</v>
       </c>
       <c r="D14">
-        <v>0.9866684710003794</v>
+        <v>0.98668092209273</v>
       </c>
       <c r="E14">
-        <v>0.9716138338718094</v>
+        <v>0.9716282696188467</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031712232045957</v>
+        <v>1.031718519005052</v>
       </c>
       <c r="J14">
-        <v>0.9890702419769218</v>
+        <v>0.9890859927660598</v>
       </c>
       <c r="K14">
-        <v>1.001863562602947</v>
+        <v>1.001875770171006</v>
       </c>
       <c r="L14">
-        <v>0.987109390577135</v>
+        <v>0.9871235323321554</v>
+      </c>
+      <c r="N14">
+        <v>0.9951436994596626</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,28 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9585379276795643</v>
+        <v>0.9585541063980511</v>
       </c>
       <c r="D15">
-        <v>0.9872038814928255</v>
+        <v>0.9872160724748447</v>
       </c>
       <c r="E15">
-        <v>0.9722109734738561</v>
+        <v>0.9722251090236708</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031936603137345</v>
+        <v>1.031942759530256</v>
       </c>
       <c r="J15">
-        <v>0.9895811774494341</v>
+        <v>0.9895966010934453</v>
       </c>
       <c r="K15">
-        <v>1.002297921776894</v>
+        <v>1.002309876301927</v>
       </c>
       <c r="L15">
-        <v>0.987601728123384</v>
+        <v>0.9876155782503948</v>
+      </c>
+      <c r="N15">
+        <v>0.9954889012752521</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,63 +911,69 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9628272991401882</v>
+        <v>0.9628414802817132</v>
       </c>
       <c r="D16">
-        <v>0.9902815430827315</v>
+        <v>0.9902922519521984</v>
       </c>
       <c r="E16">
-        <v>0.9756454527192743</v>
+        <v>0.9756578778031108</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033220265037557</v>
+        <v>1.033225676905185</v>
       </c>
       <c r="J16">
-        <v>0.9925157457094353</v>
+        <v>0.9925293021862441</v>
       </c>
       <c r="K16">
-        <v>1.004791311558991</v>
+        <v>1.004801822684182</v>
       </c>
       <c r="L16">
-        <v>0.9904307958492604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.990442982397205</v>
+      </c>
+      <c r="N16">
+        <v>0.9974715083482854</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9654700073357976</v>
+        <v>0.9654829740817695</v>
       </c>
       <c r="D17">
-        <v>0.9921790660411571</v>
+        <v>0.9921888718720409</v>
       </c>
       <c r="E17">
-        <v>0.977764758389465</v>
+        <v>0.9777761413608935</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034006347946562</v>
+        <v>1.034011305704259</v>
       </c>
       <c r="J17">
-        <v>0.9943229907613141</v>
+        <v>0.9943354069950766</v>
       </c>
       <c r="K17">
-        <v>1.006325628409327</v>
+        <v>1.006335258772431</v>
       </c>
       <c r="L17">
-        <v>0.9921742172765147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.9921853886495035</v>
+      </c>
+      <c r="N17">
+        <v>0.9986924280964652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -933,31 +981,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9669948281046271</v>
+        <v>0.9670070996396358</v>
       </c>
       <c r="D18">
-        <v>0.9932743556591985</v>
+        <v>0.9932836438454494</v>
       </c>
       <c r="E18">
-        <v>0.9789887274375916</v>
+        <v>0.9789995130675812</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034458152578727</v>
+        <v>1.034462849861399</v>
       </c>
       <c r="J18">
-        <v>0.9953654516459044</v>
+        <v>0.9953772133718284</v>
       </c>
       <c r="K18">
-        <v>1.007210201229488</v>
+        <v>1.007219326265373</v>
       </c>
       <c r="L18">
-        <v>0.9931802743887949</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.9931908633006858</v>
+      </c>
+      <c r="N18">
+        <v>0.9993966585836416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -965,31 +1016,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9675119903563114</v>
+        <v>0.9675240269972787</v>
       </c>
       <c r="D19">
-        <v>0.9936459057921727</v>
+        <v>0.9936550189686356</v>
       </c>
       <c r="E19">
-        <v>0.9794040428939003</v>
+        <v>0.979414626573783</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034611086224529</v>
+        <v>1.034615695415446</v>
       </c>
       <c r="J19">
-        <v>0.9957189609417927</v>
+        <v>0.9957305012385677</v>
       </c>
       <c r="K19">
-        <v>1.00751009024589</v>
+        <v>1.007519044361456</v>
       </c>
       <c r="L19">
-        <v>0.9935215083544637</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.9935319002542956</v>
+      </c>
+      <c r="N19">
+        <v>0.9996354661529353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -997,31 +1051,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9651882033893524</v>
+        <v>0.9652012990536374</v>
       </c>
       <c r="D20">
-        <v>0.9919766782521814</v>
+        <v>0.9919865800198094</v>
       </c>
       <c r="E20">
-        <v>0.9775386471694808</v>
+        <v>0.9775501408501091</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033922706247081</v>
+        <v>1.033927712265918</v>
       </c>
       <c r="J20">
-        <v>0.994130306985251</v>
+        <v>0.9941428444495655</v>
       </c>
       <c r="K20">
-        <v>1.00616209065798</v>
+        <v>1.006171814638721</v>
       </c>
       <c r="L20">
-        <v>0.991988295453025</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.9919995747324036</v>
+      </c>
+      <c r="N20">
+        <v>0.998562259293838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1029,31 +1086,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9574334462526038</v>
+        <v>0.9574501448023819</v>
       </c>
       <c r="D21">
-        <v>0.9864118787837634</v>
+        <v>0.9864244547762537</v>
       </c>
       <c r="E21">
-        <v>0.9713276931254929</v>
+        <v>0.9713422730226947</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031604595430536</v>
+        <v>1.031610945074888</v>
       </c>
       <c r="J21">
-        <v>0.9888253354683505</v>
+        <v>0.9888412432892372</v>
       </c>
       <c r="K21">
-        <v>1.001655337581503</v>
+        <v>1.001667666627311</v>
       </c>
       <c r="L21">
-        <v>0.9868734222495528</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.9868877040040085</v>
+      </c>
+      <c r="N21">
+        <v>0.9949782328786789</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1061,31 +1121,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9523937874723734</v>
+        <v>0.9524128875262522</v>
       </c>
       <c r="D22">
-        <v>0.9828006930871218</v>
+        <v>0.9828150440499764</v>
       </c>
       <c r="E22">
-        <v>0.9673029296436829</v>
+        <v>0.9673195581408157</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030082538315039</v>
+        <v>1.030089778086111</v>
       </c>
       <c r="J22">
-        <v>0.9853756109891185</v>
+        <v>0.9853937464158892</v>
       </c>
       <c r="K22">
-        <v>0.9987207488370631</v>
+        <v>0.9987348022136139</v>
       </c>
       <c r="L22">
-        <v>0.9835511933166837</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9835674621789985</v>
+      </c>
+      <c r="N22">
+        <v>0.9926474196514535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1093,31 +1156,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9550816757064895</v>
+        <v>0.9550994888133041</v>
       </c>
       <c r="D23">
-        <v>0.9847261530229199</v>
+        <v>0.9847395535506259</v>
       </c>
       <c r="E23">
-        <v>0.96944838855256</v>
+        <v>0.9694639200810153</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030895744865282</v>
+        <v>1.030902508165763</v>
       </c>
       <c r="J23">
-        <v>0.9872156768062679</v>
+        <v>0.987232620352066</v>
       </c>
       <c r="K23">
-        <v>1.000286396867338</v>
+        <v>1.000299527388488</v>
       </c>
       <c r="L23">
-        <v>0.9853228868424863</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9853380922436594</v>
+      </c>
+      <c r="N23">
+        <v>0.9938906794087213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1125,60 +1191,66 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9653155896932994</v>
+        <v>0.9653286270645745</v>
       </c>
       <c r="D24">
-        <v>0.9920681640393065</v>
+        <v>0.9920780224293045</v>
       </c>
       <c r="E24">
-        <v>0.9776408546513254</v>
+        <v>0.977652298274909</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033960521004736</v>
+        <v>1.033965505202904</v>
       </c>
       <c r="J24">
-        <v>0.9942174084716153</v>
+        <v>0.9942298911245151</v>
       </c>
       <c r="K24">
-        <v>1.00623601828914</v>
+        <v>1.006245699942234</v>
       </c>
       <c r="L24">
-        <v>0.9920723389652244</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.9920835694565839</v>
+      </c>
+      <c r="N24">
+        <v>0.9986211013565692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9765447575614187</v>
+        <v>0.9765527616935196</v>
       </c>
       <c r="D25">
-        <v>1.000140338731663</v>
+        <v>1.000146438846909</v>
       </c>
       <c r="E25">
-        <v>0.9866736052848711</v>
+        <v>0.9866807124954889</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037255663179731</v>
+        <v>1.037258753417664</v>
       </c>
       <c r="J25">
-        <v>1.001888114647961</v>
+        <v>1.001895830938841</v>
       </c>
       <c r="K25">
-        <v>1.012736476512625</v>
+        <v>1.012742481966129</v>
       </c>
       <c r="L25">
-        <v>0.9994823801435824</v>
+        <v>0.9994893731691438</v>
+      </c>
+      <c r="N25">
+        <v>1.003802539176341</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_bus/vm_pu.xlsx
@@ -421,31 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9850481100997909</v>
+        <v>1.008551230522062</v>
       </c>
       <c r="D2">
-        <v>1.006260785624687</v>
+        <v>1.025450397993341</v>
       </c>
       <c r="E2">
-        <v>0.9935448309734957</v>
+        <v>1.017382598502546</v>
+      </c>
+      <c r="F2">
+        <v>1.018707691701793</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039693783357247</v>
+        <v>1.04910410499943</v>
       </c>
       <c r="J2">
-        <v>1.007685415660499</v>
+        <v>1.030479149676117</v>
       </c>
       <c r="K2">
-        <v>1.01763358144778</v>
+        <v>1.036566199032719</v>
       </c>
       <c r="L2">
-        <v>1.005094835194321</v>
+        <v>1.028604963443624</v>
+      </c>
+      <c r="M2">
+        <v>1.029912408680409</v>
       </c>
       <c r="N2">
-        <v>1.007714762191998</v>
+        <v>1.031942548266267</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,31 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9909790107040247</v>
+        <v>1.017644211417903</v>
       </c>
       <c r="D3">
-        <v>1.010531396043594</v>
+        <v>1.032551289017609</v>
       </c>
       <c r="E3">
-        <v>0.9983528748606227</v>
+        <v>1.025775190433361</v>
+      </c>
+      <c r="F3">
+        <v>1.028221378347371</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041358853132909</v>
+        <v>1.052518532024355</v>
       </c>
       <c r="J3">
-        <v>1.01171865487739</v>
+        <v>1.037665167112807</v>
       </c>
       <c r="K3">
-        <v>1.021031275989345</v>
+        <v>1.042783945330076</v>
       </c>
       <c r="L3">
-        <v>1.009006874434017</v>
+        <v>1.036088562004443</v>
+      </c>
+      <c r="M3">
+        <v>1.038505459369319</v>
       </c>
       <c r="N3">
-        <v>1.010439523891678</v>
+        <v>1.039138770671965</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -491,31 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9947148944601677</v>
+        <v>1.02331093312313</v>
       </c>
       <c r="D4">
-        <v>1.013221659574854</v>
+        <v>1.036978433912255</v>
       </c>
       <c r="E4">
-        <v>1.001388335699098</v>
+        <v>1.031007125090394</v>
+      </c>
+      <c r="F4">
+        <v>1.034156591304002</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042391013215108</v>
+        <v>1.05463020383529</v>
       </c>
       <c r="J4">
-        <v>1.014254766840968</v>
+        <v>1.042136572030517</v>
       </c>
       <c r="K4">
-        <v>1.023163087431581</v>
+        <v>1.04665014220182</v>
       </c>
       <c r="L4">
-        <v>1.011470033563157</v>
+        <v>1.040745187996317</v>
+      </c>
+      <c r="M4">
+        <v>1.043859539128463</v>
       </c>
       <c r="N4">
-        <v>1.012152544067763</v>
+        <v>1.043616525497536</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -526,31 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.996262192758808</v>
+        <v>1.025644852208406</v>
       </c>
       <c r="D5">
-        <v>1.014335839172</v>
+        <v>1.038802129278546</v>
       </c>
       <c r="E5">
-        <v>1.002647115265158</v>
+        <v>1.033162313785256</v>
+      </c>
+      <c r="F5">
+        <v>1.036602588525668</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042814427883466</v>
+        <v>1.055495972219086</v>
       </c>
       <c r="J5">
-        <v>1.015304030002546</v>
+        <v>1.043976465245225</v>
       </c>
       <c r="K5">
-        <v>1.024043927464515</v>
+        <v>1.048240317805095</v>
       </c>
       <c r="L5">
-        <v>1.012489895527879</v>
+        <v>1.042661326767693</v>
+      </c>
+      <c r="M5">
+        <v>1.04606440222755</v>
       </c>
       <c r="N5">
-        <v>1.012861190796036</v>
+        <v>1.045459031571648</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -561,31 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9965206572732332</v>
+        <v>1.026033988217219</v>
       </c>
       <c r="D6">
-        <v>1.014521948586837</v>
+        <v>1.039106209921024</v>
       </c>
       <c r="E6">
-        <v>1.002857475648059</v>
+        <v>1.033521668385861</v>
+      </c>
+      <c r="F6">
+        <v>1.037010498971265</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042884914135807</v>
+        <v>1.05564008788616</v>
       </c>
       <c r="J6">
-        <v>1.015479233745897</v>
+        <v>1.044283129194301</v>
       </c>
       <c r="K6">
-        <v>1.02419093957168</v>
+        <v>1.048505318709143</v>
       </c>
       <c r="L6">
-        <v>1.012660235892198</v>
+        <v>1.042980701244335</v>
+      </c>
+      <c r="M6">
+        <v>1.046432002785221</v>
       </c>
       <c r="N6">
-        <v>1.01297951436068</v>
+        <v>1.045766131018706</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -596,31 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9947356595539566</v>
+        <v>1.023342304670676</v>
       </c>
       <c r="D7">
-        <v>1.013236612452339</v>
+        <v>1.037002946183237</v>
       </c>
       <c r="E7">
-        <v>1.001405222659252</v>
+        <v>1.031036092940738</v>
+      </c>
+      <c r="F7">
+        <v>1.034189463448571</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042396711764139</v>
+        <v>1.054641856884334</v>
       </c>
       <c r="J7">
-        <v>1.014268852711141</v>
+        <v>1.042161309979798</v>
       </c>
       <c r="K7">
-        <v>1.02317491690172</v>
+        <v>1.04667152538673</v>
       </c>
       <c r="L7">
-        <v>1.01148372164298</v>
+        <v>1.040770950946481</v>
+      </c>
+      <c r="M7">
+        <v>1.04388917714626</v>
       </c>
       <c r="N7">
-        <v>1.012162057639384</v>
+        <v>1.043641298577542</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -631,31 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9870742554214262</v>
+        <v>1.011671476922476</v>
       </c>
       <c r="D8">
-        <v>1.007719629086906</v>
+        <v>1.027886569802958</v>
       </c>
       <c r="E8">
-        <v>0.9951858892650909</v>
+        <v>1.020262106381857</v>
+      </c>
+      <c r="F8">
+        <v>1.021970952952479</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040266075867075</v>
+        <v>1.050279152406046</v>
       </c>
       <c r="J8">
-        <v>1.009064167729038</v>
+        <v>1.032946447931541</v>
       </c>
       <c r="K8">
-        <v>1.01879603865468</v>
+        <v>1.038701597820551</v>
       </c>
       <c r="L8">
-        <v>1.006431468053736</v>
+        <v>1.031174434774833</v>
+      </c>
+      <c r="M8">
+        <v>1.032861315927643</v>
       </c>
       <c r="N8">
-        <v>1.008646279613506</v>
+        <v>1.034413350368218</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -666,31 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9727401991221776</v>
+        <v>0.9892580728603939</v>
       </c>
       <c r="D9">
-        <v>0.9974042563252494</v>
+        <v>1.010402046333473</v>
       </c>
       <c r="E9">
-        <v>0.9836088439856711</v>
+        <v>0.9995885516143617</v>
+      </c>
+      <c r="F9">
+        <v>0.9985588560562512</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036149038499298</v>
+        <v>1.041770594677121</v>
       </c>
       <c r="J9">
-        <v>0.9992937079259728</v>
+        <v>1.015195943313018</v>
       </c>
       <c r="K9">
-        <v>1.010539588516734</v>
+        <v>1.02332858222526</v>
       </c>
       <c r="L9">
-        <v>0.9969735747797367</v>
+        <v>1.012688307810605</v>
+      </c>
+      <c r="M9">
+        <v>1.011675358168833</v>
       </c>
       <c r="N9">
-        <v>1.002043899886724</v>
+        <v>1.016637637997124</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -701,31 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9625406730712598</v>
+        <v>0.9727661657278079</v>
       </c>
       <c r="D10">
-        <v>0.9900763324496673</v>
+        <v>0.9975652467558279</v>
       </c>
       <c r="E10">
-        <v>0.9754168145491999</v>
+        <v>0.9843948088706008</v>
+      </c>
+      <c r="F10">
+        <v>0.9813703801962375</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033135973435955</v>
+        <v>1.035426200449766</v>
       </c>
       <c r="J10">
-        <v>0.992323587685479</v>
+        <v>1.002103576281253</v>
       </c>
       <c r="K10">
-        <v>1.004627103597878</v>
+        <v>1.011978601015898</v>
       </c>
       <c r="L10">
-        <v>0.9902445795074678</v>
+        <v>0.9990516543894808</v>
+      </c>
+      <c r="M10">
+        <v>0.996084346898748</v>
       </c>
       <c r="N10">
-        <v>0.9973324426402002</v>
+        <v>1.00352667830246</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -736,31 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9579505085403367</v>
+        <v>0.9651707719882633</v>
       </c>
       <c r="D11">
-        <v>0.986783225696901</v>
+        <v>0.9916634062003351</v>
       </c>
       <c r="E11">
-        <v>0.9717423585716114</v>
+        <v>0.977403240407974</v>
+      </c>
+      <c r="F11">
+        <v>0.9734637971013955</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031761410248083</v>
+        <v>1.032485849917755</v>
       </c>
       <c r="J11">
-        <v>0.989183614267653</v>
+        <v>0.9960678650447283</v>
       </c>
       <c r="K11">
-        <v>1.00195877068591</v>
+        <v>1.006744269740858</v>
       </c>
       <c r="L11">
-        <v>0.9872175997832966</v>
+        <v>0.992764261854045</v>
+      </c>
+      <c r="M11">
+        <v>0.9889041196608642</v>
       </c>
       <c r="N11">
-        <v>0.9952096977220033</v>
+        <v>0.9974823956636728</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.9562174061889601</v>
+        <v>0.9622721013702393</v>
       </c>
       <c r="D12">
-        <v>0.9855407354220402</v>
+        <v>0.98941293350585</v>
       </c>
       <c r="E12">
-        <v>0.9703569729687277</v>
+        <v>0.9747360791281079</v>
+      </c>
+      <c r="F12">
+        <v>0.9704478626180868</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03123974277079</v>
+        <v>1.031361094030133</v>
       </c>
       <c r="J12">
-        <v>0.9879976835900857</v>
+        <v>0.9937636799976316</v>
       </c>
       <c r="K12">
-        <v>1.000950295847333</v>
+        <v>1.004745815179324</v>
       </c>
       <c r="L12">
-        <v>0.9860750086034855</v>
+        <v>0.9903638474840101</v>
+      </c>
+      <c r="M12">
+        <v>0.9861640137941551</v>
       </c>
       <c r="N12">
-        <v>0.9944079254659933</v>
+        <v>0.9951749384095157</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -806,31 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9565904692663122</v>
+        <v>0.9628975454091631</v>
       </c>
       <c r="D13">
-        <v>0.9858081478064419</v>
+        <v>0.9898984255134525</v>
       </c>
       <c r="E13">
-        <v>0.9706550960909764</v>
+        <v>0.9753115192923595</v>
+      </c>
+      <c r="F13">
+        <v>0.9710985401971727</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03135215442009</v>
+        <v>1.031603896884453</v>
       </c>
       <c r="J13">
-        <v>0.9882529791728648</v>
+        <v>0.9942608830970765</v>
       </c>
       <c r="K13">
-        <v>1.001167420273678</v>
+        <v>1.00517705472386</v>
       </c>
       <c r="L13">
-        <v>0.9863209444233677</v>
+        <v>0.9908818224379936</v>
+      </c>
+      <c r="M13">
+        <v>0.9867552373886117</v>
       </c>
       <c r="N13">
-        <v>0.9945805247456011</v>
+        <v>0.9956728475943918</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -841,31 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9578078356121698</v>
+        <v>0.9649328053290273</v>
       </c>
       <c r="D14">
-        <v>0.98668092209273</v>
+        <v>0.9914786132398817</v>
       </c>
       <c r="E14">
-        <v>0.9716282696188467</v>
+        <v>0.977184256820959</v>
+      </c>
+      <c r="F14">
+        <v>0.9732161730535087</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031718519005052</v>
+        <v>1.032393564862612</v>
       </c>
       <c r="J14">
-        <v>0.9890859927660598</v>
+        <v>0.995878716807062</v>
       </c>
       <c r="K14">
-        <v>1.001875770171006</v>
+        <v>1.006580222228211</v>
       </c>
       <c r="L14">
-        <v>0.9871235323321554</v>
+        <v>0.9925672174418078</v>
+      </c>
+      <c r="M14">
+        <v>0.9886791673738217</v>
       </c>
       <c r="N14">
-        <v>0.9951436994596626</v>
+        <v>0.9972929788138136</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -876,31 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9585541063980511</v>
+        <v>0.9661762352375802</v>
       </c>
       <c r="D15">
-        <v>0.9872160724748447</v>
+        <v>0.9924442767546218</v>
       </c>
       <c r="E15">
-        <v>0.9722251090236708</v>
+        <v>0.9783285402367936</v>
+      </c>
+      <c r="F15">
+        <v>0.9745101259722743</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031942759530256</v>
+        <v>1.032875670358707</v>
       </c>
       <c r="J15">
-        <v>0.9895966010934453</v>
+        <v>0.9968670302010693</v>
       </c>
       <c r="K15">
-        <v>1.002309876301927</v>
+        <v>1.007437374761532</v>
       </c>
       <c r="L15">
-        <v>0.9876155782503948</v>
+        <v>0.9935967827325229</v>
+      </c>
+      <c r="M15">
+        <v>0.9898545997306407</v>
       </c>
       <c r="N15">
-        <v>0.9954889012752521</v>
+        <v>0.9982826957262015</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -911,31 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9628414802817132</v>
+        <v>0.9732599339145036</v>
       </c>
       <c r="D16">
-        <v>0.9902922519521984</v>
+        <v>0.9979491558593264</v>
       </c>
       <c r="E16">
-        <v>0.9756578778031108</v>
+        <v>0.9848494591134056</v>
+      </c>
+      <c r="F16">
+        <v>0.9818845801382277</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033225676905185</v>
+        <v>1.035616983291612</v>
       </c>
       <c r="J16">
-        <v>0.9925293021862441</v>
+        <v>1.002495840614851</v>
       </c>
       <c r="K16">
-        <v>1.004801822684182</v>
+        <v>1.012318750970992</v>
       </c>
       <c r="L16">
-        <v>0.990442982397205</v>
+        <v>0.9994602573087158</v>
+      </c>
+      <c r="M16">
+        <v>0.9965511374864955</v>
       </c>
       <c r="N16">
-        <v>0.9974715083482854</v>
+        <v>1.003919499696404</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,31 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9654829740817695</v>
+        <v>0.9775757933799895</v>
       </c>
       <c r="D17">
-        <v>0.9921888718720409</v>
+        <v>1.001305947992965</v>
       </c>
       <c r="E17">
-        <v>0.9777761413608935</v>
+        <v>0.988824084476208</v>
+      </c>
+      <c r="F17">
+        <v>0.9863801065710558</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034011305704259</v>
+        <v>1.037282508256253</v>
       </c>
       <c r="J17">
-        <v>0.9943354069950766</v>
+        <v>1.005923836275995</v>
       </c>
       <c r="K17">
-        <v>1.006335258772431</v>
+        <v>1.015291117891552</v>
       </c>
       <c r="L17">
-        <v>0.9921853886495035</v>
+        <v>1.003030947237219</v>
+      </c>
+      <c r="M17">
+        <v>1.000631231883734</v>
       </c>
       <c r="N17">
-        <v>0.9986924280964652</v>
+        <v>1.007352363504584</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -981,31 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9670070996396358</v>
+        <v>0.9800500307698595</v>
       </c>
       <c r="D18">
-        <v>0.9932836438454494</v>
+        <v>1.003231283694145</v>
       </c>
       <c r="E18">
-        <v>0.9789995130675812</v>
+        <v>0.9911032365637463</v>
+      </c>
+      <c r="F18">
+        <v>0.9889582352687984</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034462849861399</v>
+        <v>1.038235613379331</v>
       </c>
       <c r="J18">
-        <v>0.9953772133718284</v>
+        <v>1.007888503224823</v>
       </c>
       <c r="K18">
-        <v>1.007219326265373</v>
+        <v>1.016994473106533</v>
       </c>
       <c r="L18">
-        <v>0.9931908633006858</v>
+        <v>1.005077327432449</v>
+      </c>
+      <c r="M18">
+        <v>1.002970325350775</v>
       </c>
       <c r="N18">
-        <v>0.9993966585836416</v>
+        <v>1.00931982050583</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1016,31 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9675240269972787</v>
+        <v>0.9808866163347781</v>
       </c>
       <c r="D19">
-        <v>0.9936550189686356</v>
+        <v>1.003882422448416</v>
       </c>
       <c r="E19">
-        <v>0.979414626573783</v>
+        <v>0.9918739472761542</v>
+      </c>
+      <c r="F19">
+        <v>0.989830098017292</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034615695415446</v>
+        <v>1.038557579508347</v>
       </c>
       <c r="J19">
-        <v>0.9957305012385677</v>
+        <v>1.00855269321564</v>
       </c>
       <c r="K19">
-        <v>1.007519044361456</v>
+        <v>1.017570289459067</v>
       </c>
       <c r="L19">
-        <v>0.9935319002542956</v>
+        <v>1.005769131358399</v>
+      </c>
+      <c r="M19">
+        <v>1.003761217048275</v>
       </c>
       <c r="N19">
-        <v>0.9996354661529353</v>
+        <v>1.009984953722617</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1051,31 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9652012990536374</v>
+        <v>0.9771172642685683</v>
       </c>
       <c r="D20">
-        <v>0.9919865800198094</v>
+        <v>1.000949214677799</v>
       </c>
       <c r="E20">
-        <v>0.9775501408501091</v>
+        <v>0.9884017516229707</v>
+      </c>
+      <c r="F20">
+        <v>0.9859023961165126</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033927712265918</v>
+        <v>1.037105736580577</v>
       </c>
       <c r="J20">
-        <v>0.9941428444495655</v>
+        <v>1.005559694396649</v>
       </c>
       <c r="K20">
-        <v>1.006171814638721</v>
+        <v>1.014975393799579</v>
       </c>
       <c r="L20">
-        <v>0.9919995747324036</v>
+        <v>1.002651654867161</v>
+      </c>
+      <c r="M20">
+        <v>1.000197748733407</v>
       </c>
       <c r="N20">
-        <v>0.998562259293838</v>
+        <v>1.006987704502002</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1086,31 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9574501448023819</v>
+        <v>0.9643356912467422</v>
       </c>
       <c r="D21">
-        <v>0.9864244547762537</v>
+        <v>0.9910149558394655</v>
       </c>
       <c r="E21">
-        <v>0.9713422730226947</v>
+        <v>0.976634793499764</v>
+      </c>
+      <c r="F21">
+        <v>0.9725948505321157</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031610945074888</v>
+        <v>1.032161958666072</v>
       </c>
       <c r="J21">
-        <v>0.9888412432892372</v>
+        <v>0.9954040882089368</v>
       </c>
       <c r="K21">
-        <v>1.001667666627311</v>
+        <v>1.006168575764123</v>
       </c>
       <c r="L21">
-        <v>0.9868877040040085</v>
+        <v>0.9920727725258878</v>
+      </c>
+      <c r="M21">
+        <v>0.9881147116798634</v>
       </c>
       <c r="N21">
-        <v>0.9949782328786789</v>
+        <v>0.9968176761886383</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1121,31 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9524128875262522</v>
+        <v>0.955845625006462</v>
       </c>
       <c r="D22">
-        <v>0.9828150440499764</v>
+        <v>0.9844274586229923</v>
       </c>
       <c r="E22">
-        <v>0.9673195581408157</v>
+        <v>0.9688250705462315</v>
+      </c>
+      <c r="F22">
+        <v>0.9637642458994492</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030089778086111</v>
+        <v>1.028862814530315</v>
       </c>
       <c r="J22">
-        <v>0.9853937464158892</v>
+        <v>0.9886540226085212</v>
       </c>
       <c r="K22">
-        <v>0.9987348022136139</v>
+        <v>1.000313854164877</v>
       </c>
       <c r="L22">
-        <v>0.9835674621789985</v>
+        <v>0.9850404817909878</v>
+      </c>
+      <c r="M22">
+        <v>0.9800894180023393</v>
       </c>
       <c r="N22">
-        <v>0.9926474196514535</v>
+        <v>0.9900580247208268</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1156,31 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9550994888133041</v>
+        <v>0.9603929380850725</v>
       </c>
       <c r="D23">
-        <v>0.9847395535506259</v>
+        <v>0.9879545653592343</v>
       </c>
       <c r="E23">
-        <v>0.9694639200810153</v>
+        <v>0.973007325705333</v>
+      </c>
+      <c r="F23">
+        <v>0.9684931085097535</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030902508165763</v>
+        <v>1.030631216338122</v>
       </c>
       <c r="J23">
-        <v>0.987232620352066</v>
+        <v>0.992269724403796</v>
       </c>
       <c r="K23">
-        <v>1.000299527388488</v>
+        <v>1.003450038482369</v>
       </c>
       <c r="L23">
-        <v>0.9853380922436594</v>
+        <v>0.9888074538363486</v>
+      </c>
+      <c r="M23">
+        <v>0.9843876921422562</v>
       </c>
       <c r="N23">
-        <v>0.9938906794087213</v>
+        <v>0.9936788612273775</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1191,31 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9653286270645745</v>
+        <v>0.9773245864477735</v>
       </c>
       <c r="D24">
-        <v>0.9920780224293045</v>
+        <v>1.001110507434459</v>
       </c>
       <c r="E24">
-        <v>0.977652298274909</v>
+        <v>0.9885927061324523</v>
+      </c>
+      <c r="F24">
+        <v>0.9861183882995884</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033965505202904</v>
+        <v>1.03718566859015</v>
       </c>
       <c r="J24">
-        <v>0.9942298911245151</v>
+        <v>1.005724341527984</v>
       </c>
       <c r="K24">
-        <v>1.006245699942234</v>
+        <v>1.015118149343549</v>
       </c>
       <c r="L24">
-        <v>0.9920835694565839</v>
+        <v>1.002823152518804</v>
+      </c>
+      <c r="M24">
+        <v>1.000393746428162</v>
       </c>
       <c r="N24">
-        <v>0.9986211013565692</v>
+        <v>1.007152585451147</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1226,31 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9765527616935196</v>
+        <v>0.9953001376871394</v>
       </c>
       <c r="D25">
-        <v>1.000146438846909</v>
+        <v>1.015111611303826</v>
       </c>
       <c r="E25">
-        <v>0.9866807124954889</v>
+        <v>1.005159047649274</v>
+      </c>
+      <c r="F25">
+        <v>1.004863858422948</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037258753417664</v>
+        <v>1.044078767449285</v>
       </c>
       <c r="J25">
-        <v>1.001895830938841</v>
+        <v>1.019986712808383</v>
       </c>
       <c r="K25">
-        <v>1.012742481966129</v>
+        <v>1.027479782290565</v>
       </c>
       <c r="L25">
-        <v>0.9994893731691438</v>
+        <v>1.017677800494553</v>
+      </c>
+      <c r="M25">
+        <v>1.017387135577871</v>
       </c>
       <c r="N25">
-        <v>1.003802539176341</v>
+        <v>1.021435210934682</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008551230522062</v>
+        <v>1.035224931448212</v>
       </c>
       <c r="D2">
-        <v>1.025450397993341</v>
+        <v>1.046040391118579</v>
       </c>
       <c r="E2">
-        <v>1.017382598502546</v>
+        <v>1.044622292300908</v>
       </c>
       <c r="F2">
-        <v>1.018707691701793</v>
+        <v>1.051929719890549</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04910410499943</v>
+        <v>1.063973225658161</v>
       </c>
       <c r="J2">
-        <v>1.030479149676117</v>
+        <v>1.056400798285938</v>
       </c>
       <c r="K2">
-        <v>1.036566199032719</v>
+        <v>1.056893515785424</v>
       </c>
       <c r="L2">
-        <v>1.028604963443624</v>
+        <v>1.05549309444029</v>
       </c>
       <c r="M2">
-        <v>1.029912408680409</v>
+        <v>1.062710064898977</v>
       </c>
       <c r="N2">
-        <v>1.031942548266267</v>
+        <v>1.057901008590369</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017644211417903</v>
+        <v>1.041335845736546</v>
       </c>
       <c r="D3">
-        <v>1.032551289017609</v>
+        <v>1.050705826016025</v>
       </c>
       <c r="E3">
-        <v>1.025775190433361</v>
+        <v>1.05000132394978</v>
       </c>
       <c r="F3">
-        <v>1.028221378347371</v>
+        <v>1.057902137190174</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052518532024355</v>
+        <v>1.066570114551902</v>
       </c>
       <c r="J3">
-        <v>1.037665167112807</v>
+        <v>1.060759748660794</v>
       </c>
       <c r="K3">
-        <v>1.042783945330076</v>
+        <v>1.060728557853145</v>
       </c>
       <c r="L3">
-        <v>1.036088562004443</v>
+        <v>1.060032035147559</v>
       </c>
       <c r="M3">
-        <v>1.038505459369319</v>
+        <v>1.067844110893007</v>
       </c>
       <c r="N3">
-        <v>1.039138770671965</v>
+        <v>1.062266149174736</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02331093312313</v>
+        <v>1.045189646149152</v>
       </c>
       <c r="D4">
-        <v>1.036978433912255</v>
+        <v>1.053650001564056</v>
       </c>
       <c r="E4">
-        <v>1.031007125090394</v>
+        <v>1.053398316407541</v>
       </c>
       <c r="F4">
-        <v>1.034156591304002</v>
+        <v>1.061675823705308</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05463020383529</v>
+        <v>1.068196825732245</v>
       </c>
       <c r="J4">
-        <v>1.042136572030517</v>
+        <v>1.063504011271598</v>
       </c>
       <c r="K4">
-        <v>1.04665014220182</v>
+        <v>1.063141326037571</v>
       </c>
       <c r="L4">
-        <v>1.040745187996317</v>
+        <v>1.06289231211649</v>
       </c>
       <c r="M4">
-        <v>1.043859539128463</v>
+        <v>1.071082778136602</v>
       </c>
       <c r="N4">
-        <v>1.043616525497536</v>
+        <v>1.065014308953219</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025644852208406</v>
+        <v>1.046786860195106</v>
       </c>
       <c r="D5">
-        <v>1.038802129278546</v>
+        <v>1.054870622372158</v>
       </c>
       <c r="E5">
-        <v>1.033162313785256</v>
+        <v>1.054807291148064</v>
       </c>
       <c r="F5">
-        <v>1.036602588525668</v>
+        <v>1.063241524836231</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055495972219086</v>
+        <v>1.068868338601762</v>
       </c>
       <c r="J5">
-        <v>1.043976465245225</v>
+        <v>1.064640211344347</v>
       </c>
       <c r="K5">
-        <v>1.048240317805095</v>
+        <v>1.064139868048975</v>
       </c>
       <c r="L5">
-        <v>1.042661326767693</v>
+        <v>1.064077190355601</v>
       </c>
       <c r="M5">
-        <v>1.04606440222755</v>
+        <v>1.072425223449227</v>
       </c>
       <c r="N5">
-        <v>1.045459031571648</v>
+        <v>1.066152122560395</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026033988217219</v>
+        <v>1.047053725966152</v>
       </c>
       <c r="D6">
-        <v>1.039106209921024</v>
+        <v>1.055074587954009</v>
       </c>
       <c r="E6">
-        <v>1.033521668385861</v>
+        <v>1.055042767838051</v>
       </c>
       <c r="F6">
-        <v>1.037010498971265</v>
+        <v>1.063503223541106</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05564008788616</v>
+        <v>1.068980377544075</v>
       </c>
       <c r="J6">
-        <v>1.044283129194301</v>
+        <v>1.064829980312024</v>
       </c>
       <c r="K6">
-        <v>1.048505318709143</v>
+        <v>1.064306620781319</v>
       </c>
       <c r="L6">
-        <v>1.042980701244335</v>
+        <v>1.064275127463546</v>
       </c>
       <c r="M6">
-        <v>1.046432002785221</v>
+        <v>1.072649530875268</v>
       </c>
       <c r="N6">
-        <v>1.045766131018706</v>
+        <v>1.066342161021772</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.023342304670676</v>
+        <v>1.045211076868222</v>
       </c>
       <c r="D7">
-        <v>1.037002946183237</v>
+        <v>1.053666377814752</v>
       </c>
       <c r="E7">
-        <v>1.031036092940738</v>
+        <v>1.05341721719</v>
       </c>
       <c r="F7">
-        <v>1.034189463448571</v>
+        <v>1.061696824968961</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054641856884334</v>
+        <v>1.068205846451469</v>
       </c>
       <c r="J7">
-        <v>1.042161309979798</v>
+        <v>1.0635192609652</v>
       </c>
       <c r="K7">
-        <v>1.04667152538673</v>
+        <v>1.063154729770557</v>
       </c>
       <c r="L7">
-        <v>1.040770950946481</v>
+        <v>1.062908212602743</v>
       </c>
       <c r="M7">
-        <v>1.04388917714626</v>
+        <v>1.071100789851168</v>
       </c>
       <c r="N7">
-        <v>1.043641298577542</v>
+        <v>1.065029580303134</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011671476922476</v>
+        <v>1.037311615188139</v>
       </c>
       <c r="D8">
-        <v>1.027886569802958</v>
+        <v>1.047633035787485</v>
       </c>
       <c r="E8">
-        <v>1.020262106381857</v>
+        <v>1.046458028148381</v>
       </c>
       <c r="F8">
-        <v>1.021970952952479</v>
+        <v>1.05396756240976</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050279152406046</v>
+        <v>1.064862268841641</v>
       </c>
       <c r="J8">
-        <v>1.032946447931541</v>
+        <v>1.057890199062207</v>
       </c>
       <c r="K8">
-        <v>1.038701597820551</v>
+        <v>1.058204244833128</v>
       </c>
       <c r="L8">
-        <v>1.031174434774833</v>
+        <v>1.057043425771226</v>
       </c>
       <c r="M8">
-        <v>1.032861315927643</v>
+        <v>1.064462955636055</v>
       </c>
       <c r="N8">
-        <v>1.034413350368218</v>
+        <v>1.059392524486577</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9892580728603939</v>
+        <v>1.022569204286943</v>
       </c>
       <c r="D9">
-        <v>1.010402046333473</v>
+        <v>1.036392366965265</v>
       </c>
       <c r="E9">
-        <v>0.9995885516143617</v>
+        <v>1.033511337462615</v>
       </c>
       <c r="F9">
-        <v>0.9985588560562512</v>
+        <v>1.039603200572309</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041770594677121</v>
+        <v>1.058535846966014</v>
       </c>
       <c r="J9">
-        <v>1.015195943313018</v>
+        <v>1.047349407318104</v>
       </c>
       <c r="K9">
-        <v>1.02332858222526</v>
+        <v>1.048921361743891</v>
       </c>
       <c r="L9">
-        <v>1.012688307810605</v>
+        <v>1.046083146354973</v>
       </c>
       <c r="M9">
-        <v>1.011675358168833</v>
+        <v>1.052084835138447</v>
       </c>
       <c r="N9">
-        <v>1.016637637997124</v>
+        <v>1.048836763609151</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9727661657278079</v>
+        <v>1.012105358608925</v>
       </c>
       <c r="D10">
-        <v>0.9975652467558279</v>
+        <v>1.028432089218027</v>
       </c>
       <c r="E10">
-        <v>0.9843948088706008</v>
+        <v>1.02435410827309</v>
       </c>
       <c r="F10">
-        <v>0.9813703801962375</v>
+        <v>1.029452295189325</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035426200449766</v>
+        <v>1.053989712540316</v>
       </c>
       <c r="J10">
-        <v>1.002103576281253</v>
+        <v>1.039846787635878</v>
       </c>
       <c r="K10">
-        <v>1.011978601015898</v>
+        <v>1.042306292452058</v>
       </c>
       <c r="L10">
-        <v>0.9990516543894808</v>
+        <v>1.038297137001341</v>
       </c>
       <c r="M10">
-        <v>0.996084346898748</v>
+        <v>1.043309389962354</v>
       </c>
       <c r="N10">
-        <v>1.00352667830246</v>
+        <v>1.041323489346414</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9651707719882633</v>
+        <v>1.007402799977214</v>
       </c>
       <c r="D11">
-        <v>0.9916634062003351</v>
+        <v>1.024860225424916</v>
       </c>
       <c r="E11">
-        <v>0.977403240407974</v>
+        <v>1.020247422734131</v>
       </c>
       <c r="F11">
-        <v>0.9734637971013955</v>
+        <v>1.024901859830559</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032485849917755</v>
+        <v>1.051934113798236</v>
       </c>
       <c r="J11">
-        <v>0.9960678650447283</v>
+        <v>1.036470823958528</v>
       </c>
       <c r="K11">
-        <v>1.006744269740858</v>
+        <v>1.039328064193082</v>
       </c>
       <c r="L11">
-        <v>0.992764261854045</v>
+        <v>1.034797343752145</v>
       </c>
       <c r="M11">
-        <v>0.9889041196608642</v>
+        <v>1.039368962101544</v>
       </c>
       <c r="N11">
-        <v>0.9974823956636728</v>
+        <v>1.037942731413415</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9622721013702393</v>
+        <v>1.005628281593858</v>
       </c>
       <c r="D12">
-        <v>0.98941293350585</v>
+        <v>1.023513330702335</v>
       </c>
       <c r="E12">
-        <v>0.9747360791281079</v>
+        <v>1.018699159070671</v>
       </c>
       <c r="F12">
-        <v>0.9704478626180868</v>
+        <v>1.023186555079304</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031361094030133</v>
+        <v>1.05115661599611</v>
       </c>
       <c r="J12">
-        <v>0.9937636799976316</v>
+        <v>1.035196337848183</v>
       </c>
       <c r="K12">
-        <v>1.004745815179324</v>
+        <v>1.038203503757905</v>
       </c>
       <c r="L12">
-        <v>0.9903638474840101</v>
+        <v>1.033476672060562</v>
       </c>
       <c r="M12">
-        <v>0.9861640137941551</v>
+        <v>1.037882622781409</v>
       </c>
       <c r="N12">
-        <v>0.9951749384095157</v>
+        <v>1.036666435386606</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9628975454091631</v>
+        <v>1.006010213075485</v>
       </c>
       <c r="D13">
-        <v>0.9898984255134525</v>
+        <v>1.023803179216184</v>
       </c>
       <c r="E13">
-        <v>0.9753115192923595</v>
+        <v>1.019032328568588</v>
       </c>
       <c r="F13">
-        <v>0.9710985401971727</v>
+        <v>1.023555658803992</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031603896884453</v>
+        <v>1.051324038463271</v>
       </c>
       <c r="J13">
-        <v>0.9942608830970765</v>
+        <v>1.03547067094373</v>
       </c>
       <c r="K13">
-        <v>1.00517705472386</v>
+        <v>1.038445575257106</v>
       </c>
       <c r="L13">
-        <v>0.9908818224379936</v>
+        <v>1.033760921069686</v>
       </c>
       <c r="M13">
-        <v>0.9867552373886117</v>
+        <v>1.038202501194924</v>
       </c>
       <c r="N13">
-        <v>0.9956728475943918</v>
+        <v>1.036941158066616</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9649328053290273</v>
+        <v>1.007256696653499</v>
       </c>
       <c r="D14">
-        <v>0.9914786132398817</v>
+        <v>1.024749310020525</v>
       </c>
       <c r="E14">
-        <v>0.977184256820959</v>
+        <v>1.020119918844821</v>
       </c>
       <c r="F14">
-        <v>0.9732161730535087</v>
+        <v>1.024760594561872</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032393564862612</v>
+        <v>1.051870135660035</v>
       </c>
       <c r="J14">
-        <v>0.995878716807062</v>
+        <v>1.03636590127102</v>
       </c>
       <c r="K14">
-        <v>1.006580222228211</v>
+        <v>1.03923548868996</v>
       </c>
       <c r="L14">
-        <v>0.9925672174418078</v>
+        <v>1.034688607351055</v>
       </c>
       <c r="M14">
-        <v>0.9886791673738217</v>
+        <v>1.039246573287998</v>
       </c>
       <c r="N14">
-        <v>0.9972929788138136</v>
+        <v>1.037837659723655</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9661762352375802</v>
+        <v>1.008020952344819</v>
       </c>
       <c r="D15">
-        <v>0.9924442767546218</v>
+        <v>1.025329539853861</v>
       </c>
       <c r="E15">
-        <v>0.9783285402367936</v>
+        <v>1.020786939889583</v>
       </c>
       <c r="F15">
-        <v>0.9745101259722743</v>
+        <v>1.02549961690403</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032875670358707</v>
+        <v>1.052204727161639</v>
       </c>
       <c r="J15">
-        <v>0.9968670302010693</v>
+        <v>1.036914721729695</v>
       </c>
       <c r="K15">
-        <v>1.007437374761532</v>
+        <v>1.039719715475331</v>
       </c>
       <c r="L15">
-        <v>0.9935967827325229</v>
+        <v>1.035257399179137</v>
       </c>
       <c r="M15">
-        <v>0.9898545997306407</v>
+        <v>1.039886804569516</v>
       </c>
       <c r="N15">
-        <v>0.9982826957262015</v>
+        <v>1.038387259570332</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9732599339145036</v>
+        <v>1.012413670209285</v>
       </c>
       <c r="D16">
-        <v>0.9979491558593264</v>
+        <v>1.028666394838957</v>
       </c>
       <c r="E16">
-        <v>0.9848494591134056</v>
+        <v>1.024623540940167</v>
       </c>
       <c r="F16">
-        <v>0.9818845801382277</v>
+        <v>1.029750878486353</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035616983291612</v>
+        <v>1.054124228431957</v>
       </c>
       <c r="J16">
-        <v>1.002495840614851</v>
+        <v>1.040068042869291</v>
       </c>
       <c r="K16">
-        <v>1.012318750970992</v>
+        <v>1.042501448392204</v>
       </c>
       <c r="L16">
-        <v>0.9994602573087158</v>
+        <v>1.038526584998617</v>
       </c>
       <c r="M16">
-        <v>0.9965511374864955</v>
+        <v>1.043567810787396</v>
       </c>
       <c r="N16">
-        <v>1.003919499696404</v>
+        <v>1.041545058787637</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9775757933799895</v>
+        <v>1.015121808599264</v>
       </c>
       <c r="D17">
-        <v>1.001305947992965</v>
+        <v>1.030725125377666</v>
       </c>
       <c r="E17">
-        <v>0.988824084476208</v>
+        <v>1.026991168366752</v>
       </c>
       <c r="F17">
-        <v>0.9863801065710558</v>
+        <v>1.032374875884398</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037282508256253</v>
+        <v>1.05530437468392</v>
       </c>
       <c r="J17">
-        <v>1.005923836275995</v>
+        <v>1.042011029339499</v>
       </c>
       <c r="K17">
-        <v>1.015291117891552</v>
+        <v>1.044215056890458</v>
       </c>
       <c r="L17">
-        <v>1.003030947237219</v>
+        <v>1.040541935769024</v>
       </c>
       <c r="M17">
-        <v>1.000631231883734</v>
+        <v>1.045838108579053</v>
       </c>
       <c r="N17">
-        <v>1.007352363504584</v>
+        <v>1.043490804521497</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9800500307698595</v>
+        <v>1.016685003493001</v>
       </c>
       <c r="D18">
-        <v>1.003231283694145</v>
+        <v>1.031913985315657</v>
       </c>
       <c r="E18">
-        <v>0.9911032365637463</v>
+        <v>1.028358623955894</v>
       </c>
       <c r="F18">
-        <v>0.9889582352687984</v>
+        <v>1.033890580595593</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038235613379331</v>
+        <v>1.055984394200175</v>
       </c>
       <c r="J18">
-        <v>1.007888503224823</v>
+        <v>1.043132160089751</v>
       </c>
       <c r="K18">
-        <v>1.016994473106533</v>
+        <v>1.045203677635055</v>
       </c>
       <c r="L18">
-        <v>1.005077327432449</v>
+        <v>1.041705168860523</v>
       </c>
       <c r="M18">
-        <v>1.002970325350775</v>
+        <v>1.047148882440761</v>
       </c>
       <c r="N18">
-        <v>1.00931982050583</v>
+        <v>1.044613527406009</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9808866163347781</v>
+        <v>1.017215285256704</v>
       </c>
       <c r="D19">
-        <v>1.003882422448416</v>
+        <v>1.032317365992138</v>
       </c>
       <c r="E19">
-        <v>0.9918739472761542</v>
+        <v>1.028822639922487</v>
       </c>
       <c r="F19">
-        <v>0.989830098017292</v>
+        <v>1.034404932735715</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038557579508347</v>
+        <v>1.056214873792364</v>
       </c>
       <c r="J19">
-        <v>1.00855269321564</v>
+        <v>1.043512410400963</v>
       </c>
       <c r="K19">
-        <v>1.017570289459067</v>
+        <v>1.045538957994701</v>
       </c>
       <c r="L19">
-        <v>1.005769131358399</v>
+        <v>1.042099757540641</v>
       </c>
       <c r="M19">
-        <v>1.003761217048275</v>
+        <v>1.04759358570966</v>
       </c>
       <c r="N19">
-        <v>1.009984953722617</v>
+        <v>1.044994317716279</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9771172642685683</v>
+        <v>1.014832962750499</v>
       </c>
       <c r="D20">
-        <v>1.000949214677799</v>
+        <v>1.030505489866224</v>
       </c>
       <c r="E20">
-        <v>0.9884017516229707</v>
+        <v>1.026738556008451</v>
       </c>
       <c r="F20">
-        <v>0.9859023961165126</v>
+        <v>1.032094891881499</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037105736580577</v>
+        <v>1.055178624814121</v>
       </c>
       <c r="J20">
-        <v>1.005559694396649</v>
+        <v>1.041803834691138</v>
       </c>
       <c r="K20">
-        <v>1.014975393799579</v>
+        <v>1.04403233850284</v>
       </c>
       <c r="L20">
-        <v>1.002651654867161</v>
+        <v>1.040326988285554</v>
       </c>
       <c r="M20">
-        <v>1.000197748733407</v>
+        <v>1.045595929374161</v>
       </c>
       <c r="N20">
-        <v>1.006987704502002</v>
+        <v>1.04328331563297</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9643356912467422</v>
+        <v>1.006890422156358</v>
       </c>
       <c r="D21">
-        <v>0.9910149558394655</v>
+        <v>1.024471265833745</v>
       </c>
       <c r="E21">
-        <v>0.976634793499764</v>
+        <v>1.019800295194702</v>
       </c>
       <c r="F21">
-        <v>0.9725948505321157</v>
+        <v>1.024406478273299</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032161958666072</v>
+        <v>1.05170971637221</v>
       </c>
       <c r="J21">
-        <v>0.9954040882089368</v>
+        <v>1.036102856021582</v>
       </c>
       <c r="K21">
-        <v>1.006168575764123</v>
+        <v>1.039003394734939</v>
       </c>
       <c r="L21">
-        <v>0.9920727725258878</v>
+        <v>1.034416010051021</v>
       </c>
       <c r="M21">
-        <v>0.9881147116798634</v>
+        <v>1.03893975976727</v>
       </c>
       <c r="N21">
-        <v>0.9968176761886383</v>
+        <v>1.037574240919792</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.955845625006462</v>
+        <v>1.001734771166415</v>
       </c>
       <c r="D22">
-        <v>0.9844274586229923</v>
+        <v>1.020559975415142</v>
       </c>
       <c r="E22">
-        <v>0.9688250705462315</v>
+        <v>1.015304777355626</v>
       </c>
       <c r="F22">
-        <v>0.9637642458994492</v>
+        <v>1.019426400436813</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028862814530315</v>
+        <v>1.049447427104914</v>
       </c>
       <c r="J22">
-        <v>0.9886540226085212</v>
+        <v>1.032399011620126</v>
       </c>
       <c r="K22">
-        <v>1.000313854164877</v>
+        <v>1.035734849620585</v>
       </c>
       <c r="L22">
-        <v>0.9850404817909878</v>
+        <v>1.030579020854421</v>
       </c>
       <c r="M22">
-        <v>0.9800894180023393</v>
+        <v>1.034622595929249</v>
       </c>
       <c r="N22">
-        <v>0.9900580247208268</v>
+        <v>1.033865136634448</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9603929380850725</v>
+        <v>1.004483941871073</v>
       </c>
       <c r="D23">
-        <v>0.9879545653592343</v>
+        <v>1.022645038591409</v>
       </c>
       <c r="E23">
-        <v>0.973007325705333</v>
+        <v>1.017701133012529</v>
       </c>
       <c r="F23">
-        <v>0.9684931085097535</v>
+        <v>1.022080921913728</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030631216338122</v>
+        <v>1.050654725821174</v>
       </c>
       <c r="J23">
-        <v>0.992269724403796</v>
+        <v>1.034374307169828</v>
       </c>
       <c r="K23">
-        <v>1.003450038482369</v>
+        <v>1.037478112331049</v>
       </c>
       <c r="L23">
-        <v>0.9888074538363486</v>
+        <v>1.032625011764315</v>
       </c>
       <c r="M23">
-        <v>0.9843876921422562</v>
+        <v>1.036924299015149</v>
       </c>
       <c r="N23">
-        <v>0.9936788612273775</v>
+        <v>1.035843237330401</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9773245864477735</v>
+        <v>1.014963530340592</v>
       </c>
       <c r="D24">
-        <v>1.001110507434459</v>
+        <v>1.030604770567499</v>
       </c>
       <c r="E24">
-        <v>0.9885927061324523</v>
+        <v>1.026852742389043</v>
       </c>
       <c r="F24">
-        <v>0.9861183882995884</v>
+        <v>1.032221450293907</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03718566859015</v>
+        <v>1.055235471475379</v>
       </c>
       <c r="J24">
-        <v>1.005724341527984</v>
+        <v>1.041897494573041</v>
       </c>
       <c r="K24">
-        <v>1.015118149343549</v>
+        <v>1.044114934666227</v>
       </c>
       <c r="L24">
-        <v>1.002823152518804</v>
+        <v>1.040424151667598</v>
       </c>
       <c r="M24">
-        <v>1.000393746428162</v>
+        <v>1.045705401188707</v>
       </c>
       <c r="N24">
-        <v>1.007152585451147</v>
+        <v>1.043377108522647</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9953001376871394</v>
+        <v>1.026485986133135</v>
       </c>
       <c r="D25">
-        <v>1.015111611303826</v>
+        <v>1.039376090976581</v>
       </c>
       <c r="E25">
-        <v>1.005159047649274</v>
+        <v>1.036945867791307</v>
       </c>
       <c r="F25">
-        <v>1.004863858422948</v>
+        <v>1.043412181032655</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044078767449285</v>
+        <v>1.060226422076531</v>
       </c>
       <c r="J25">
-        <v>1.019986712808383</v>
+        <v>1.050153725586854</v>
       </c>
       <c r="K25">
-        <v>1.027479782290565</v>
+        <v>1.051392417477969</v>
       </c>
       <c r="L25">
-        <v>1.017677800494553</v>
+        <v>1.048996495250725</v>
       </c>
       <c r="M25">
-        <v>1.017387135577871</v>
+        <v>1.055371986419962</v>
       </c>
       <c r="N25">
-        <v>1.021435210934682</v>
+        <v>1.051645064331504</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.035224931448212</v>
+        <v>1.06187484444853</v>
       </c>
       <c r="D2">
-        <v>1.046040391118579</v>
+        <v>1.059904106548607</v>
       </c>
       <c r="E2">
-        <v>1.044622292300908</v>
+        <v>1.067592828746729</v>
       </c>
       <c r="F2">
-        <v>1.051929719890549</v>
+        <v>1.078726521730898</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.063973225658161</v>
+        <v>1.054818583205507</v>
       </c>
       <c r="J2">
-        <v>1.056400798285938</v>
+        <v>1.066848271596514</v>
       </c>
       <c r="K2">
-        <v>1.056893515785424</v>
+        <v>1.062632340361056</v>
       </c>
       <c r="L2">
-        <v>1.05549309444029</v>
+        <v>1.070300276584162</v>
       </c>
       <c r="M2">
-        <v>1.062710064898977</v>
+        <v>1.081404437849588</v>
       </c>
       <c r="N2">
-        <v>1.057901008590369</v>
+        <v>1.068363318511389</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.041335845736546</v>
+        <v>1.0631022890688</v>
       </c>
       <c r="D3">
-        <v>1.050705826016025</v>
+        <v>1.060845549766199</v>
       </c>
       <c r="E3">
-        <v>1.05000132394978</v>
+        <v>1.068718480113534</v>
       </c>
       <c r="F3">
-        <v>1.057902137190174</v>
+        <v>1.079998183666202</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.066570114551902</v>
+        <v>1.055257341296082</v>
       </c>
       <c r="J3">
-        <v>1.060759748660794</v>
+        <v>1.06772860528943</v>
       </c>
       <c r="K3">
-        <v>1.060728557853145</v>
+        <v>1.063387783049298</v>
       </c>
       <c r="L3">
-        <v>1.060032035147559</v>
+        <v>1.071240972104949</v>
       </c>
       <c r="M3">
-        <v>1.067844110893007</v>
+        <v>1.082492931420566</v>
       </c>
       <c r="N3">
-        <v>1.062266149174736</v>
+        <v>1.069244902379124</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.045189646149152</v>
+        <v>1.063896055791924</v>
       </c>
       <c r="D4">
-        <v>1.053650001564056</v>
+        <v>1.061454220259673</v>
       </c>
       <c r="E4">
-        <v>1.053398316407541</v>
+        <v>1.06944662483629</v>
       </c>
       <c r="F4">
-        <v>1.061675823705308</v>
+        <v>1.080821102506293</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.068196825732245</v>
+        <v>1.05553971672708</v>
       </c>
       <c r="J4">
-        <v>1.063504011271598</v>
+        <v>1.06829722493143</v>
       </c>
       <c r="K4">
-        <v>1.063141326037571</v>
+        <v>1.063875473487554</v>
       </c>
       <c r="L4">
-        <v>1.06289231211649</v>
+        <v>1.071848848568723</v>
       </c>
       <c r="M4">
-        <v>1.071082778136602</v>
+        <v>1.083196764576355</v>
       </c>
       <c r="N4">
-        <v>1.065014308953219</v>
+        <v>1.069814329526236</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.046786860195106</v>
+        <v>1.064229644730907</v>
       </c>
       <c r="D5">
-        <v>1.054870622372158</v>
+        <v>1.061709985319993</v>
       </c>
       <c r="E5">
-        <v>1.054807291148064</v>
+        <v>1.069752684222931</v>
       </c>
       <c r="F5">
-        <v>1.063241524836231</v>
+        <v>1.081167076020885</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068868338601762</v>
+        <v>1.055658061852099</v>
       </c>
       <c r="J5">
-        <v>1.064640211344347</v>
+        <v>1.068536031138834</v>
       </c>
       <c r="K5">
-        <v>1.064139868048975</v>
+        <v>1.064080228903175</v>
       </c>
       <c r="L5">
-        <v>1.064077190355601</v>
+        <v>1.07210420595431</v>
       </c>
       <c r="M5">
-        <v>1.072425223449227</v>
+        <v>1.083492539341206</v>
       </c>
       <c r="N5">
-        <v>1.066152122560395</v>
+        <v>1.070053474865847</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.047053725966152</v>
+        <v>1.064285649366573</v>
       </c>
       <c r="D6">
-        <v>1.055074587954009</v>
+        <v>1.061752922395395</v>
       </c>
       <c r="E6">
-        <v>1.055042767838051</v>
+        <v>1.069804069901926</v>
       </c>
       <c r="F6">
-        <v>1.063503223541106</v>
+        <v>1.081225167636237</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068980377544075</v>
+        <v>1.055677911111231</v>
       </c>
       <c r="J6">
-        <v>1.064829980312024</v>
+        <v>1.06857611363527</v>
       </c>
       <c r="K6">
-        <v>1.064306620781319</v>
+        <v>1.064114592462276</v>
       </c>
       <c r="L6">
-        <v>1.064275127463546</v>
+        <v>1.072147070259612</v>
       </c>
       <c r="M6">
-        <v>1.072649530875268</v>
+        <v>1.083542194435101</v>
       </c>
       <c r="N6">
-        <v>1.066342161021772</v>
+        <v>1.070093614284026</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.045211076868222</v>
+        <v>1.063900513655186</v>
       </c>
       <c r="D7">
-        <v>1.053666377814752</v>
+        <v>1.061457638275041</v>
       </c>
       <c r="E7">
-        <v>1.05341721719</v>
+        <v>1.069450714621585</v>
       </c>
       <c r="F7">
-        <v>1.061696824968961</v>
+        <v>1.080825725346359</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.068205846451469</v>
+        <v>1.055541299495535</v>
       </c>
       <c r="J7">
-        <v>1.0635192609652</v>
+        <v>1.068300416818641</v>
       </c>
       <c r="K7">
-        <v>1.063154729770557</v>
+        <v>1.063878210497416</v>
       </c>
       <c r="L7">
-        <v>1.062908212602743</v>
+        <v>1.071852261426453</v>
       </c>
       <c r="M7">
-        <v>1.071100789851168</v>
+        <v>1.083200717189515</v>
       </c>
       <c r="N7">
-        <v>1.065029580303134</v>
+        <v>1.069817525946294</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.037311615188139</v>
+        <v>1.062289764292711</v>
       </c>
       <c r="D8">
-        <v>1.047633035787485</v>
+        <v>1.060222377216848</v>
       </c>
       <c r="E8">
-        <v>1.046458028148381</v>
+        <v>1.067973295909551</v>
       </c>
       <c r="F8">
-        <v>1.05396756240976</v>
+        <v>1.079156272866027</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.064862268841641</v>
+        <v>1.054967180960194</v>
       </c>
       <c r="J8">
-        <v>1.057890199062207</v>
+        <v>1.067145995601084</v>
       </c>
       <c r="K8">
-        <v>1.058204244833128</v>
+        <v>1.062887880784181</v>
       </c>
       <c r="L8">
-        <v>1.057043425771226</v>
+        <v>1.070618359039483</v>
       </c>
       <c r="M8">
-        <v>1.064462955636055</v>
+        <v>1.08177240292094</v>
       </c>
       <c r="N8">
-        <v>1.059392524486577</v>
+        <v>1.068661465318194</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.022569204286943</v>
+        <v>1.059447694758349</v>
       </c>
       <c r="D9">
-        <v>1.036392366965265</v>
+        <v>1.058041759248937</v>
       </c>
       <c r="E9">
-        <v>1.033511337462615</v>
+        <v>1.065368081159617</v>
       </c>
       <c r="F9">
-        <v>1.039603200572309</v>
+        <v>1.076214918126991</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058535846966014</v>
+        <v>1.053943750467728</v>
       </c>
       <c r="J9">
-        <v>1.047349407318104</v>
+        <v>1.065103914335666</v>
       </c>
       <c r="K9">
-        <v>1.048921361743891</v>
+        <v>1.06113407162014</v>
       </c>
       <c r="L9">
-        <v>1.046083146354973</v>
+        <v>1.068437741477806</v>
       </c>
       <c r="M9">
-        <v>1.052084835138447</v>
+        <v>1.07925165877651</v>
       </c>
       <c r="N9">
-        <v>1.048836763609151</v>
+        <v>1.066616484063149</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.012105358608925</v>
+        <v>1.057550324916504</v>
       </c>
       <c r="D10">
-        <v>1.028432089218027</v>
+        <v>1.056585294785479</v>
       </c>
       <c r="E10">
-        <v>1.02435410827309</v>
+        <v>1.063629943194337</v>
       </c>
       <c r="F10">
-        <v>1.029452295189325</v>
+        <v>1.0742541769611</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053989712540316</v>
+        <v>1.053253500233152</v>
       </c>
       <c r="J10">
-        <v>1.039846787635878</v>
+        <v>1.063737154782727</v>
       </c>
       <c r="K10">
-        <v>1.042306292452058</v>
+        <v>1.059958921599225</v>
       </c>
       <c r="L10">
-        <v>1.038297137001341</v>
+        <v>1.066979643335733</v>
       </c>
       <c r="M10">
-        <v>1.043309389962354</v>
+        <v>1.077568443909163</v>
       </c>
       <c r="N10">
-        <v>1.041323489346414</v>
+        <v>1.065247783554876</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.007402799977214</v>
+        <v>1.056728077850032</v>
       </c>
       <c r="D11">
-        <v>1.024860225424916</v>
+        <v>1.055953966794998</v>
       </c>
       <c r="E11">
-        <v>1.020247422734131</v>
+        <v>1.062876970395263</v>
       </c>
       <c r="F11">
-        <v>1.024901859830559</v>
+        <v>1.07340516320877</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051934113798236</v>
+        <v>1.052952712524458</v>
       </c>
       <c r="J11">
-        <v>1.036470823958528</v>
+        <v>1.06314403606772</v>
       </c>
       <c r="K11">
-        <v>1.039328064193082</v>
+        <v>1.059448640432407</v>
       </c>
       <c r="L11">
-        <v>1.034797343752145</v>
+        <v>1.06634721505324</v>
       </c>
       <c r="M11">
-        <v>1.039368962101544</v>
+        <v>1.076838922026789</v>
       </c>
       <c r="N11">
-        <v>1.037942731413415</v>
+        <v>1.064653822543261</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.005628281593858</v>
+        <v>1.056422554413733</v>
       </c>
       <c r="D12">
-        <v>1.023513330702335</v>
+        <v>1.055719361284364</v>
       </c>
       <c r="E12">
-        <v>1.018699159070671</v>
+        <v>1.062597228313108</v>
       </c>
       <c r="F12">
-        <v>1.023186555079304</v>
+        <v>1.073089799070079</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05115661599611</v>
+        <v>1.05284069921468</v>
       </c>
       <c r="J12">
-        <v>1.035196337848183</v>
+        <v>1.062923527599802</v>
       </c>
       <c r="K12">
-        <v>1.038203503757905</v>
+        <v>1.059258882251153</v>
       </c>
       <c r="L12">
-        <v>1.033476672060562</v>
+        <v>1.066112141361995</v>
       </c>
       <c r="M12">
-        <v>1.037882622781409</v>
+        <v>1.076567840775501</v>
       </c>
       <c r="N12">
-        <v>1.036666435386606</v>
+        <v>1.064433000928026</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.006010213075485</v>
+        <v>1.056488094995937</v>
       </c>
       <c r="D13">
-        <v>1.023803179216184</v>
+        <v>1.055769689613215</v>
       </c>
       <c r="E13">
-        <v>1.019032328568588</v>
+        <v>1.062657236439697</v>
       </c>
       <c r="F13">
-        <v>1.023555658803992</v>
+        <v>1.073157445909877</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051324038463271</v>
+        <v>1.052864739472706</v>
       </c>
       <c r="J13">
-        <v>1.03547067094373</v>
+        <v>1.062970836396913</v>
       </c>
       <c r="K13">
-        <v>1.038445575257106</v>
+        <v>1.059299595873468</v>
       </c>
       <c r="L13">
-        <v>1.033760921069686</v>
+        <v>1.066162572816197</v>
       </c>
       <c r="M13">
-        <v>1.038202501194924</v>
+        <v>1.076625993383938</v>
       </c>
       <c r="N13">
-        <v>1.036941158066616</v>
+        <v>1.064480376909056</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.007256696653499</v>
+        <v>1.056702825332381</v>
       </c>
       <c r="D14">
-        <v>1.024749310020525</v>
+        <v>1.055934576324333</v>
       </c>
       <c r="E14">
-        <v>1.020119918844821</v>
+        <v>1.062853847951385</v>
       </c>
       <c r="F14">
-        <v>1.024760594561872</v>
+        <v>1.07337909517964</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051870135660035</v>
+        <v>1.052943459338307</v>
       </c>
       <c r="J14">
-        <v>1.03636590127102</v>
+        <v>1.063125812815191</v>
       </c>
       <c r="K14">
-        <v>1.03923548868996</v>
+        <v>1.059432959399121</v>
       </c>
       <c r="L14">
-        <v>1.034688607351055</v>
+        <v>1.066327787098681</v>
       </c>
       <c r="M14">
-        <v>1.039246573287998</v>
+        <v>1.076816516508271</v>
       </c>
       <c r="N14">
-        <v>1.037837659723655</v>
+        <v>1.064635573411624</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.008020952344819</v>
+        <v>1.05683511387082</v>
       </c>
       <c r="D15">
-        <v>1.025329539853861</v>
+        <v>1.056036154879443</v>
       </c>
       <c r="E15">
-        <v>1.020786939889583</v>
+        <v>1.062974979509432</v>
       </c>
       <c r="F15">
-        <v>1.02549961690403</v>
+        <v>1.073515660182501</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052204727161639</v>
+        <v>1.052991923131747</v>
       </c>
       <c r="J15">
-        <v>1.036914721729695</v>
+        <v>1.063221272634095</v>
       </c>
       <c r="K15">
-        <v>1.039719715475331</v>
+        <v>1.059515100259289</v>
       </c>
       <c r="L15">
-        <v>1.035257399179137</v>
+        <v>1.066429559585655</v>
       </c>
       <c r="M15">
-        <v>1.039886804569516</v>
+        <v>1.076933890195885</v>
       </c>
       <c r="N15">
-        <v>1.038387259570332</v>
+        <v>1.06473116879442</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.012413670209285</v>
+        <v>1.057604880294551</v>
       </c>
       <c r="D16">
-        <v>1.028666394838957</v>
+        <v>1.056627179704883</v>
       </c>
       <c r="E16">
-        <v>1.024623540940167</v>
+        <v>1.063679908005049</v>
       </c>
       <c r="F16">
-        <v>1.029750878486353</v>
+        <v>1.074310522984394</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054124228431957</v>
+        <v>1.053273422289496</v>
       </c>
       <c r="J16">
-        <v>1.040068042869291</v>
+        <v>1.0637764904961</v>
       </c>
       <c r="K16">
-        <v>1.042501448392204</v>
+        <v>1.0599927569356</v>
       </c>
       <c r="L16">
-        <v>1.038526584998617</v>
+        <v>1.067021592961133</v>
       </c>
       <c r="M16">
-        <v>1.043567810787396</v>
+        <v>1.077616845371548</v>
       </c>
       <c r="N16">
-        <v>1.041545058787637</v>
+        <v>1.065287175129473</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.015121808599264</v>
+        <v>1.058087551963474</v>
       </c>
       <c r="D17">
-        <v>1.030725125377666</v>
+        <v>1.056997733628832</v>
       </c>
       <c r="E17">
-        <v>1.026991168366752</v>
+        <v>1.064121996388964</v>
       </c>
       <c r="F17">
-        <v>1.032374875884398</v>
+        <v>1.074809117583887</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05530437468392</v>
+        <v>1.053449488466894</v>
       </c>
       <c r="J17">
-        <v>1.042011029339499</v>
+        <v>1.06412441375719</v>
       </c>
       <c r="K17">
-        <v>1.044215056890458</v>
+        <v>1.06029199339149</v>
       </c>
       <c r="L17">
-        <v>1.040541935769024</v>
+        <v>1.067392674010327</v>
       </c>
       <c r="M17">
-        <v>1.045838108579053</v>
+        <v>1.07804506172114</v>
       </c>
       <c r="N17">
-        <v>1.043490804521497</v>
+        <v>1.065635592481502</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.016685003493001</v>
+        <v>1.058369021418558</v>
       </c>
       <c r="D18">
-        <v>1.031913985315657</v>
+        <v>1.057213807000794</v>
       </c>
       <c r="E18">
-        <v>1.028358623955894</v>
+        <v>1.064379825678941</v>
       </c>
       <c r="F18">
-        <v>1.033890580595593</v>
+        <v>1.075099939569239</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055984394200175</v>
+        <v>1.053552001184509</v>
       </c>
       <c r="J18">
-        <v>1.043132160089751</v>
+        <v>1.064327225945589</v>
       </c>
       <c r="K18">
-        <v>1.045203677635055</v>
+        <v>1.060466394760449</v>
       </c>
       <c r="L18">
-        <v>1.041705168860523</v>
+        <v>1.067609016967062</v>
       </c>
       <c r="M18">
-        <v>1.047148882440761</v>
+        <v>1.078294767746184</v>
       </c>
       <c r="N18">
-        <v>1.044613527406009</v>
+        <v>1.065838692686471</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.017215285256704</v>
+        <v>1.058464984336971</v>
       </c>
       <c r="D19">
-        <v>1.032317365992138</v>
+        <v>1.057287471551757</v>
       </c>
       <c r="E19">
-        <v>1.028822639922487</v>
+        <v>1.064467733208385</v>
       </c>
       <c r="F19">
-        <v>1.034404932735715</v>
+        <v>1.075199102462565</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056214873792364</v>
+        <v>1.053586924248152</v>
       </c>
       <c r="J19">
-        <v>1.043512410400963</v>
+        <v>1.064396358424085</v>
       </c>
       <c r="K19">
-        <v>1.045538957994701</v>
+        <v>1.060525837730636</v>
       </c>
       <c r="L19">
-        <v>1.042099757540641</v>
+        <v>1.067682767028424</v>
       </c>
       <c r="M19">
-        <v>1.04759358570966</v>
+        <v>1.078379900038326</v>
       </c>
       <c r="N19">
-        <v>1.044994317716279</v>
+        <v>1.065907923341016</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.014832962750499</v>
+        <v>1.05803577258377</v>
       </c>
       <c r="D20">
-        <v>1.030505489866224</v>
+        <v>1.056957983380107</v>
       </c>
       <c r="E20">
-        <v>1.026738556008451</v>
+        <v>1.064074567959683</v>
       </c>
       <c r="F20">
-        <v>1.032094891881499</v>
+        <v>1.074755623102615</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055178624814121</v>
+        <v>1.053430617242959</v>
       </c>
       <c r="J20">
-        <v>1.041803834691138</v>
+        <v>1.064087097887288</v>
       </c>
       <c r="K20">
-        <v>1.04403233850284</v>
+        <v>1.060259902458638</v>
       </c>
       <c r="L20">
-        <v>1.040326988285554</v>
+        <v>1.067352871127355</v>
       </c>
       <c r="M20">
-        <v>1.045595929374161</v>
+        <v>1.077999124934736</v>
       </c>
       <c r="N20">
-        <v>1.04328331563297</v>
+        <v>1.065598223618784</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.006890422156358</v>
+        <v>1.05663959550343</v>
       </c>
       <c r="D21">
-        <v>1.024471265833745</v>
+        <v>1.055886024131581</v>
       </c>
       <c r="E21">
-        <v>1.019800295194702</v>
+        <v>1.062795952282926</v>
       </c>
       <c r="F21">
-        <v>1.024406478273299</v>
+        <v>1.073313825088007</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05170971637221</v>
+        <v>1.05292028624208</v>
       </c>
       <c r="J21">
-        <v>1.036102856021582</v>
+        <v>1.063080181598457</v>
       </c>
       <c r="K21">
-        <v>1.039003394734939</v>
+        <v>1.059393693169544</v>
       </c>
       <c r="L21">
-        <v>1.034416010051021</v>
+        <v>1.066279140089996</v>
       </c>
       <c r="M21">
-        <v>1.03893975976727</v>
+        <v>1.076760415096238</v>
       </c>
       <c r="N21">
-        <v>1.037574240919792</v>
+        <v>1.064589877393328</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.001734771166415</v>
+        <v>1.055761158774517</v>
       </c>
       <c r="D22">
-        <v>1.020559975415142</v>
+        <v>1.055211448779578</v>
       </c>
       <c r="E22">
-        <v>1.015304777355626</v>
+        <v>1.061991719666336</v>
       </c>
       <c r="F22">
-        <v>1.019426400436813</v>
+        <v>1.072407292927114</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049447427104914</v>
+        <v>1.052597757707885</v>
       </c>
       <c r="J22">
-        <v>1.032399011620126</v>
+        <v>1.062445948122734</v>
       </c>
       <c r="K22">
-        <v>1.035734849620585</v>
+        <v>1.058847816474904</v>
       </c>
       <c r="L22">
-        <v>1.030579020854421</v>
+        <v>1.065603106368919</v>
       </c>
       <c r="M22">
-        <v>1.034622595929249</v>
+        <v>1.07598098418666</v>
       </c>
       <c r="N22">
-        <v>1.033865136634448</v>
+        <v>1.063954743233322</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.004483941871073</v>
+        <v>1.056226893067246</v>
       </c>
       <c r="D23">
-        <v>1.022645038591409</v>
+        <v>1.055569110602579</v>
       </c>
       <c r="E23">
-        <v>1.017701133012529</v>
+        <v>1.062418089313431</v>
       </c>
       <c r="F23">
-        <v>1.022080921913728</v>
+        <v>1.072887865229707</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050654725821174</v>
+        <v>1.052768894233802</v>
       </c>
       <c r="J23">
-        <v>1.034374307169828</v>
+        <v>1.062782276525689</v>
       </c>
       <c r="K23">
-        <v>1.037478112331049</v>
+        <v>1.059137315705211</v>
       </c>
       <c r="L23">
-        <v>1.032625011764315</v>
+        <v>1.065961574095138</v>
       </c>
       <c r="M23">
-        <v>1.036924299015149</v>
+        <v>1.076394233387079</v>
       </c>
       <c r="N23">
-        <v>1.035843237330401</v>
+        <v>1.064291549261186</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.014963530340592</v>
+        <v>1.058059169656702</v>
       </c>
       <c r="D24">
-        <v>1.030604770567499</v>
+        <v>1.056975945005711</v>
       </c>
       <c r="E24">
-        <v>1.026852742389043</v>
+        <v>1.064095998928522</v>
       </c>
       <c r="F24">
-        <v>1.032221450293907</v>
+        <v>1.074779794955479</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055235471475379</v>
+        <v>1.053439144904371</v>
       </c>
       <c r="J24">
-        <v>1.041897494573041</v>
+        <v>1.064103959710624</v>
       </c>
       <c r="K24">
-        <v>1.044114934666227</v>
+        <v>1.060274403396864</v>
       </c>
       <c r="L24">
-        <v>1.040424151667598</v>
+        <v>1.067370856653098</v>
       </c>
       <c r="M24">
-        <v>1.045705401188707</v>
+        <v>1.078019881993041</v>
       </c>
       <c r="N24">
-        <v>1.043377108522647</v>
+        <v>1.065615109387843</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.026485986133135</v>
+        <v>1.06018289487085</v>
       </c>
       <c r="D25">
-        <v>1.039376090976581</v>
+        <v>1.058605974883285</v>
       </c>
       <c r="E25">
-        <v>1.036945867791307</v>
+        <v>1.066041817749259</v>
       </c>
       <c r="F25">
-        <v>1.043412181032655</v>
+        <v>1.076975290752448</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060226422076531</v>
+        <v>1.054209731221827</v>
       </c>
       <c r="J25">
-        <v>1.050153725586854</v>
+        <v>1.065632780914821</v>
       </c>
       <c r="K25">
-        <v>1.051392417477969</v>
+        <v>1.061588515105306</v>
       </c>
       <c r="L25">
-        <v>1.048996495250725</v>
+        <v>1.069002243211526</v>
       </c>
       <c r="M25">
-        <v>1.055371986419962</v>
+        <v>1.079903802276465</v>
       </c>
       <c r="N25">
-        <v>1.051645064331504</v>
+        <v>1.067146101693509</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.06187484444853</v>
+        <v>1.035224931448213</v>
       </c>
       <c r="D2">
-        <v>1.059904106548607</v>
+        <v>1.046040391118579</v>
       </c>
       <c r="E2">
-        <v>1.067592828746729</v>
+        <v>1.044622292300909</v>
       </c>
       <c r="F2">
-        <v>1.078726521730898</v>
+        <v>1.05192971989055</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054818583205507</v>
+        <v>1.063973225658162</v>
       </c>
       <c r="J2">
-        <v>1.066848271596514</v>
+        <v>1.056400798285938</v>
       </c>
       <c r="K2">
-        <v>1.062632340361056</v>
+        <v>1.056893515785425</v>
       </c>
       <c r="L2">
-        <v>1.070300276584162</v>
+        <v>1.055493094440291</v>
       </c>
       <c r="M2">
-        <v>1.081404437849588</v>
+        <v>1.062710064898978</v>
       </c>
       <c r="N2">
-        <v>1.068363318511389</v>
+        <v>1.05790100859037</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0631022890688</v>
+        <v>1.041335845736546</v>
       </c>
       <c r="D3">
-        <v>1.060845549766199</v>
+        <v>1.050705826016026</v>
       </c>
       <c r="E3">
-        <v>1.068718480113534</v>
+        <v>1.05000132394978</v>
       </c>
       <c r="F3">
-        <v>1.079998183666202</v>
+        <v>1.057902137190175</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055257341296082</v>
+        <v>1.066570114551902</v>
       </c>
       <c r="J3">
-        <v>1.06772860528943</v>
+        <v>1.060759748660794</v>
       </c>
       <c r="K3">
-        <v>1.063387783049298</v>
+        <v>1.060728557853146</v>
       </c>
       <c r="L3">
-        <v>1.071240972104949</v>
+        <v>1.060032035147559</v>
       </c>
       <c r="M3">
-        <v>1.082492931420566</v>
+        <v>1.067844110893008</v>
       </c>
       <c r="N3">
-        <v>1.069244902379124</v>
+        <v>1.062266149174736</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.063896055791924</v>
+        <v>1.045189646149149</v>
       </c>
       <c r="D4">
-        <v>1.061454220259673</v>
+        <v>1.053650001564053</v>
       </c>
       <c r="E4">
-        <v>1.06944662483629</v>
+        <v>1.053398316407539</v>
       </c>
       <c r="F4">
-        <v>1.080821102506293</v>
+        <v>1.061675823705305</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05553971672708</v>
+        <v>1.068196825732243</v>
       </c>
       <c r="J4">
-        <v>1.06829722493143</v>
+        <v>1.063504011271596</v>
       </c>
       <c r="K4">
-        <v>1.063875473487554</v>
+        <v>1.063141326037568</v>
       </c>
       <c r="L4">
-        <v>1.071848848568723</v>
+        <v>1.062892312116488</v>
       </c>
       <c r="M4">
-        <v>1.083196764576355</v>
+        <v>1.0710827781366</v>
       </c>
       <c r="N4">
-        <v>1.069814329526236</v>
+        <v>1.065014308953216</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.064229644730907</v>
+        <v>1.046786860195104</v>
       </c>
       <c r="D5">
-        <v>1.061709985319993</v>
+        <v>1.054870622372156</v>
       </c>
       <c r="E5">
-        <v>1.069752684222931</v>
+        <v>1.054807291148062</v>
       </c>
       <c r="F5">
-        <v>1.081167076020885</v>
+        <v>1.063241524836229</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055658061852099</v>
+        <v>1.068868338601761</v>
       </c>
       <c r="J5">
-        <v>1.068536031138834</v>
+        <v>1.064640211344345</v>
       </c>
       <c r="K5">
-        <v>1.064080228903175</v>
+        <v>1.064139868048974</v>
       </c>
       <c r="L5">
-        <v>1.07210420595431</v>
+        <v>1.064077190355599</v>
       </c>
       <c r="M5">
-        <v>1.083492539341206</v>
+        <v>1.072425223449225</v>
       </c>
       <c r="N5">
-        <v>1.070053474865847</v>
+        <v>1.066152122560393</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.064285649366573</v>
+        <v>1.04705372596615</v>
       </c>
       <c r="D6">
-        <v>1.061752922395395</v>
+        <v>1.055074587954007</v>
       </c>
       <c r="E6">
-        <v>1.069804069901926</v>
+        <v>1.05504276783805</v>
       </c>
       <c r="F6">
-        <v>1.081225167636237</v>
+        <v>1.063503223541104</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055677911111231</v>
+        <v>1.068980377544074</v>
       </c>
       <c r="J6">
-        <v>1.06857611363527</v>
+        <v>1.064829980312022</v>
       </c>
       <c r="K6">
-        <v>1.064114592462276</v>
+        <v>1.064306620781317</v>
       </c>
       <c r="L6">
-        <v>1.072147070259612</v>
+        <v>1.064275127463544</v>
       </c>
       <c r="M6">
-        <v>1.083542194435101</v>
+        <v>1.072649530875266</v>
       </c>
       <c r="N6">
-        <v>1.070093614284026</v>
+        <v>1.06634216102177</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.063900513655186</v>
+        <v>1.04521107686822</v>
       </c>
       <c r="D7">
-        <v>1.061457638275041</v>
+        <v>1.053666377814751</v>
       </c>
       <c r="E7">
-        <v>1.069450714621585</v>
+        <v>1.053417217189999</v>
       </c>
       <c r="F7">
-        <v>1.080825725346359</v>
+        <v>1.06169682496896</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055541299495535</v>
+        <v>1.068205846451469</v>
       </c>
       <c r="J7">
-        <v>1.068300416818641</v>
+        <v>1.063519260965198</v>
       </c>
       <c r="K7">
-        <v>1.063878210497416</v>
+        <v>1.063154729770556</v>
       </c>
       <c r="L7">
-        <v>1.071852261426453</v>
+        <v>1.062908212602742</v>
       </c>
       <c r="M7">
-        <v>1.083200717189515</v>
+        <v>1.071100789851168</v>
       </c>
       <c r="N7">
-        <v>1.069817525946294</v>
+        <v>1.065029580303133</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.062289764292711</v>
+        <v>1.037311615188137</v>
       </c>
       <c r="D8">
-        <v>1.060222377216848</v>
+        <v>1.047633035787483</v>
       </c>
       <c r="E8">
-        <v>1.067973295909551</v>
+        <v>1.046458028148378</v>
       </c>
       <c r="F8">
-        <v>1.079156272866027</v>
+        <v>1.053967562409757</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054967180960194</v>
+        <v>1.06486226884164</v>
       </c>
       <c r="J8">
-        <v>1.067145995601084</v>
+        <v>1.057890199062205</v>
       </c>
       <c r="K8">
-        <v>1.062887880784181</v>
+        <v>1.058204244833126</v>
       </c>
       <c r="L8">
-        <v>1.070618359039483</v>
+        <v>1.057043425771223</v>
       </c>
       <c r="M8">
-        <v>1.08177240292094</v>
+        <v>1.064462955636052</v>
       </c>
       <c r="N8">
-        <v>1.068661465318194</v>
+        <v>1.059392524486575</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.059447694758349</v>
+        <v>1.022569204286944</v>
       </c>
       <c r="D9">
-        <v>1.058041759248937</v>
+        <v>1.036392366965265</v>
       </c>
       <c r="E9">
-        <v>1.065368081159617</v>
+        <v>1.033511337462616</v>
       </c>
       <c r="F9">
-        <v>1.076214918126991</v>
+        <v>1.03960320057231</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053943750467728</v>
+        <v>1.058535846966015</v>
       </c>
       <c r="J9">
-        <v>1.065103914335666</v>
+        <v>1.047349407318104</v>
       </c>
       <c r="K9">
-        <v>1.06113407162014</v>
+        <v>1.048921361743891</v>
       </c>
       <c r="L9">
-        <v>1.068437741477806</v>
+        <v>1.046083146354974</v>
       </c>
       <c r="M9">
-        <v>1.07925165877651</v>
+        <v>1.052084835138448</v>
       </c>
       <c r="N9">
-        <v>1.066616484063149</v>
+        <v>1.048836763609152</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.057550324916504</v>
+        <v>1.012105358608925</v>
       </c>
       <c r="D10">
-        <v>1.056585294785479</v>
+        <v>1.028432089218027</v>
       </c>
       <c r="E10">
-        <v>1.063629943194337</v>
+        <v>1.02435410827309</v>
       </c>
       <c r="F10">
-        <v>1.0742541769611</v>
+        <v>1.029452295189324</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053253500233152</v>
+        <v>1.053989712540316</v>
       </c>
       <c r="J10">
-        <v>1.063737154782727</v>
+        <v>1.039846787635878</v>
       </c>
       <c r="K10">
-        <v>1.059958921599225</v>
+        <v>1.042306292452057</v>
       </c>
       <c r="L10">
-        <v>1.066979643335733</v>
+        <v>1.03829713700134</v>
       </c>
       <c r="M10">
-        <v>1.077568443909163</v>
+        <v>1.043309389962354</v>
       </c>
       <c r="N10">
-        <v>1.065247783554876</v>
+        <v>1.041323489346414</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.056728077850032</v>
+        <v>1.007402799977215</v>
       </c>
       <c r="D11">
-        <v>1.055953966794998</v>
+        <v>1.024860225424917</v>
       </c>
       <c r="E11">
-        <v>1.062876970395263</v>
+        <v>1.020247422734132</v>
       </c>
       <c r="F11">
-        <v>1.07340516320877</v>
+        <v>1.024901859830559</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052952712524458</v>
+        <v>1.051934113798237</v>
       </c>
       <c r="J11">
-        <v>1.06314403606772</v>
+        <v>1.036470823958529</v>
       </c>
       <c r="K11">
-        <v>1.059448640432407</v>
+        <v>1.039328064193083</v>
       </c>
       <c r="L11">
-        <v>1.06634721505324</v>
+        <v>1.034797343752145</v>
       </c>
       <c r="M11">
-        <v>1.076838922026789</v>
+        <v>1.039368962101545</v>
       </c>
       <c r="N11">
-        <v>1.064653822543261</v>
+        <v>1.037942731413416</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.056422554413733</v>
+        <v>1.005628281593857</v>
       </c>
       <c r="D12">
-        <v>1.055719361284364</v>
+        <v>1.023513330702334</v>
       </c>
       <c r="E12">
-        <v>1.062597228313108</v>
+        <v>1.01869915907067</v>
       </c>
       <c r="F12">
-        <v>1.073089799070079</v>
+        <v>1.023186555079303</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05284069921468</v>
+        <v>1.051156615996109</v>
       </c>
       <c r="J12">
-        <v>1.062923527599802</v>
+        <v>1.035196337848182</v>
       </c>
       <c r="K12">
-        <v>1.059258882251153</v>
+        <v>1.038203503757904</v>
       </c>
       <c r="L12">
-        <v>1.066112141361995</v>
+        <v>1.033476672060561</v>
       </c>
       <c r="M12">
-        <v>1.076567840775501</v>
+        <v>1.037882622781408</v>
       </c>
       <c r="N12">
-        <v>1.064433000928026</v>
+        <v>1.036666435386606</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.056488094995937</v>
+        <v>1.006010213075485</v>
       </c>
       <c r="D13">
-        <v>1.055769689613215</v>
+        <v>1.023803179216184</v>
       </c>
       <c r="E13">
-        <v>1.062657236439697</v>
+        <v>1.019032328568587</v>
       </c>
       <c r="F13">
-        <v>1.073157445909877</v>
+        <v>1.023555658803991</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052864739472706</v>
+        <v>1.05132403846327</v>
       </c>
       <c r="J13">
-        <v>1.062970836396913</v>
+        <v>1.03547067094373</v>
       </c>
       <c r="K13">
-        <v>1.059299595873468</v>
+        <v>1.038445575257106</v>
       </c>
       <c r="L13">
-        <v>1.066162572816197</v>
+        <v>1.033760921069685</v>
       </c>
       <c r="M13">
-        <v>1.076625993383938</v>
+        <v>1.038202501194923</v>
       </c>
       <c r="N13">
-        <v>1.064480376909056</v>
+        <v>1.036941158066615</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.056702825332381</v>
+        <v>1.007256696653497</v>
       </c>
       <c r="D14">
-        <v>1.055934576324333</v>
+        <v>1.024749310020524</v>
       </c>
       <c r="E14">
-        <v>1.062853847951385</v>
+        <v>1.02011991884482</v>
       </c>
       <c r="F14">
-        <v>1.07337909517964</v>
+        <v>1.024760594561871</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052943459338307</v>
+        <v>1.051870135660034</v>
       </c>
       <c r="J14">
-        <v>1.063125812815191</v>
+        <v>1.036365901271018</v>
       </c>
       <c r="K14">
-        <v>1.059432959399121</v>
+        <v>1.039235488689958</v>
       </c>
       <c r="L14">
-        <v>1.066327787098681</v>
+        <v>1.034688607351054</v>
       </c>
       <c r="M14">
-        <v>1.076816516508271</v>
+        <v>1.039246573287997</v>
       </c>
       <c r="N14">
-        <v>1.064635573411624</v>
+        <v>1.037837659723653</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.05683511387082</v>
+        <v>1.008020952344818</v>
       </c>
       <c r="D15">
-        <v>1.056036154879443</v>
+        <v>1.02532953985386</v>
       </c>
       <c r="E15">
-        <v>1.062974979509432</v>
+        <v>1.020786939889582</v>
       </c>
       <c r="F15">
-        <v>1.073515660182501</v>
+        <v>1.025499616904029</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052991923131747</v>
+        <v>1.052204727161638</v>
       </c>
       <c r="J15">
-        <v>1.063221272634095</v>
+        <v>1.036914721729694</v>
       </c>
       <c r="K15">
-        <v>1.059515100259289</v>
+        <v>1.039719715475331</v>
       </c>
       <c r="L15">
-        <v>1.066429559585655</v>
+        <v>1.035257399179136</v>
       </c>
       <c r="M15">
-        <v>1.076933890195885</v>
+        <v>1.039886804569514</v>
       </c>
       <c r="N15">
-        <v>1.06473116879442</v>
+        <v>1.038387259570331</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.057604880294551</v>
+        <v>1.012413670209285</v>
       </c>
       <c r="D16">
-        <v>1.056627179704883</v>
+        <v>1.028666394838956</v>
       </c>
       <c r="E16">
-        <v>1.063679908005049</v>
+        <v>1.024623540940167</v>
       </c>
       <c r="F16">
-        <v>1.074310522984394</v>
+        <v>1.029750878486352</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053273422289496</v>
+        <v>1.054124228431957</v>
       </c>
       <c r="J16">
-        <v>1.0637764904961</v>
+        <v>1.040068042869291</v>
       </c>
       <c r="K16">
-        <v>1.0599927569356</v>
+        <v>1.042501448392204</v>
       </c>
       <c r="L16">
-        <v>1.067021592961133</v>
+        <v>1.038526584998618</v>
       </c>
       <c r="M16">
-        <v>1.077616845371548</v>
+        <v>1.043567810787396</v>
       </c>
       <c r="N16">
-        <v>1.065287175129473</v>
+        <v>1.041545058787637</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.058087551963474</v>
+        <v>1.015121808599263</v>
       </c>
       <c r="D17">
-        <v>1.056997733628832</v>
+        <v>1.030725125377665</v>
       </c>
       <c r="E17">
-        <v>1.064121996388964</v>
+        <v>1.026991168366752</v>
       </c>
       <c r="F17">
-        <v>1.074809117583887</v>
+        <v>1.032374875884398</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053449488466894</v>
+        <v>1.05530437468392</v>
       </c>
       <c r="J17">
-        <v>1.06412441375719</v>
+        <v>1.042011029339499</v>
       </c>
       <c r="K17">
-        <v>1.06029199339149</v>
+        <v>1.044215056890458</v>
       </c>
       <c r="L17">
-        <v>1.067392674010327</v>
+        <v>1.040541935769024</v>
       </c>
       <c r="M17">
-        <v>1.07804506172114</v>
+        <v>1.045838108579053</v>
       </c>
       <c r="N17">
-        <v>1.065635592481502</v>
+        <v>1.043490804521497</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.058369021418558</v>
+        <v>1.016685003493002</v>
       </c>
       <c r="D18">
-        <v>1.057213807000794</v>
+        <v>1.031913985315659</v>
       </c>
       <c r="E18">
-        <v>1.064379825678941</v>
+        <v>1.028358623955895</v>
       </c>
       <c r="F18">
-        <v>1.075099939569239</v>
+        <v>1.033890580595595</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053552001184509</v>
+        <v>1.055984394200176</v>
       </c>
       <c r="J18">
-        <v>1.064327225945589</v>
+        <v>1.043132160089753</v>
       </c>
       <c r="K18">
-        <v>1.060466394760449</v>
+        <v>1.045203677635056</v>
       </c>
       <c r="L18">
-        <v>1.067609016967062</v>
+        <v>1.041705168860525</v>
       </c>
       <c r="M18">
-        <v>1.078294767746184</v>
+        <v>1.047148882440762</v>
       </c>
       <c r="N18">
-        <v>1.065838692686471</v>
+        <v>1.044613527406011</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.058464984336971</v>
+        <v>1.017215285256706</v>
       </c>
       <c r="D19">
-        <v>1.057287471551757</v>
+        <v>1.03231736599214</v>
       </c>
       <c r="E19">
-        <v>1.064467733208385</v>
+        <v>1.028822639922488</v>
       </c>
       <c r="F19">
-        <v>1.075199102462565</v>
+        <v>1.034404932735716</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053586924248152</v>
+        <v>1.056214873792364</v>
       </c>
       <c r="J19">
-        <v>1.064396358424085</v>
+        <v>1.043512410400965</v>
       </c>
       <c r="K19">
-        <v>1.060525837730636</v>
+        <v>1.045538957994703</v>
       </c>
       <c r="L19">
-        <v>1.067682767028424</v>
+        <v>1.042099757540643</v>
       </c>
       <c r="M19">
-        <v>1.078379900038326</v>
+        <v>1.047593585709661</v>
       </c>
       <c r="N19">
-        <v>1.065907923341016</v>
+        <v>1.044994317716281</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.05803577258377</v>
+        <v>1.014832962750501</v>
       </c>
       <c r="D20">
-        <v>1.056957983380107</v>
+        <v>1.030505489866225</v>
       </c>
       <c r="E20">
-        <v>1.064074567959683</v>
+        <v>1.026738556008453</v>
       </c>
       <c r="F20">
-        <v>1.074755623102615</v>
+        <v>1.032094891881501</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053430617242959</v>
+        <v>1.055178624814122</v>
       </c>
       <c r="J20">
-        <v>1.064087097887288</v>
+        <v>1.04180383469114</v>
       </c>
       <c r="K20">
-        <v>1.060259902458638</v>
+        <v>1.044032338502841</v>
       </c>
       <c r="L20">
-        <v>1.067352871127355</v>
+        <v>1.040326988285555</v>
       </c>
       <c r="M20">
-        <v>1.077999124934736</v>
+        <v>1.045595929374162</v>
       </c>
       <c r="N20">
-        <v>1.065598223618784</v>
+        <v>1.043283315632972</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.05663959550343</v>
+        <v>1.006890422156358</v>
       </c>
       <c r="D21">
-        <v>1.055886024131581</v>
+        <v>1.024471265833745</v>
       </c>
       <c r="E21">
-        <v>1.062795952282926</v>
+        <v>1.019800295194702</v>
       </c>
       <c r="F21">
-        <v>1.073313825088007</v>
+        <v>1.024406478273299</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05292028624208</v>
+        <v>1.05170971637221</v>
       </c>
       <c r="J21">
-        <v>1.063080181598457</v>
+        <v>1.036102856021583</v>
       </c>
       <c r="K21">
-        <v>1.059393693169544</v>
+        <v>1.039003394734939</v>
       </c>
       <c r="L21">
-        <v>1.066279140089996</v>
+        <v>1.03441601005102</v>
       </c>
       <c r="M21">
-        <v>1.076760415096238</v>
+        <v>1.03893975976727</v>
       </c>
       <c r="N21">
-        <v>1.064589877393328</v>
+        <v>1.037574240919792</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.055761158774517</v>
+        <v>1.001734771166414</v>
       </c>
       <c r="D22">
-        <v>1.055211448779578</v>
+        <v>1.020559975415141</v>
       </c>
       <c r="E22">
-        <v>1.061991719666336</v>
+        <v>1.015304777355625</v>
       </c>
       <c r="F22">
-        <v>1.072407292927114</v>
+        <v>1.019426400436812</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052597757707885</v>
+        <v>1.049447427104913</v>
       </c>
       <c r="J22">
-        <v>1.062445948122734</v>
+        <v>1.032399011620125</v>
       </c>
       <c r="K22">
-        <v>1.058847816474904</v>
+        <v>1.035734849620584</v>
       </c>
       <c r="L22">
-        <v>1.065603106368919</v>
+        <v>1.03057902085442</v>
       </c>
       <c r="M22">
-        <v>1.07598098418666</v>
+        <v>1.034622595929248</v>
       </c>
       <c r="N22">
-        <v>1.063954743233322</v>
+        <v>1.033865136634448</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.056226893067246</v>
+        <v>1.004483941871072</v>
       </c>
       <c r="D23">
-        <v>1.055569110602579</v>
+        <v>1.022645038591408</v>
       </c>
       <c r="E23">
-        <v>1.062418089313431</v>
+        <v>1.017701133012528</v>
       </c>
       <c r="F23">
-        <v>1.072887865229707</v>
+        <v>1.022080921913726</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052768894233802</v>
+        <v>1.050654725821172</v>
       </c>
       <c r="J23">
-        <v>1.062782276525689</v>
+        <v>1.034374307169827</v>
       </c>
       <c r="K23">
-        <v>1.059137315705211</v>
+        <v>1.037478112331048</v>
       </c>
       <c r="L23">
-        <v>1.065961574095138</v>
+        <v>1.032625011764313</v>
       </c>
       <c r="M23">
-        <v>1.076394233387079</v>
+        <v>1.036924299015148</v>
       </c>
       <c r="N23">
-        <v>1.064291549261186</v>
+        <v>1.035843237330399</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.058059169656702</v>
+        <v>1.014963530340593</v>
       </c>
       <c r="D24">
-        <v>1.056975945005711</v>
+        <v>1.0306047705675</v>
       </c>
       <c r="E24">
-        <v>1.064095998928522</v>
+        <v>1.026852742389045</v>
       </c>
       <c r="F24">
-        <v>1.074779794955479</v>
+        <v>1.032221450293908</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053439144904371</v>
+        <v>1.05523547147538</v>
       </c>
       <c r="J24">
-        <v>1.064103959710624</v>
+        <v>1.041897494573041</v>
       </c>
       <c r="K24">
-        <v>1.060274403396864</v>
+        <v>1.044114934666228</v>
       </c>
       <c r="L24">
-        <v>1.067370856653098</v>
+        <v>1.040424151667599</v>
       </c>
       <c r="M24">
-        <v>1.078019881993041</v>
+        <v>1.045705401188709</v>
       </c>
       <c r="N24">
-        <v>1.065615109387843</v>
+        <v>1.043377108522648</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.06018289487085</v>
+        <v>1.026485986133135</v>
       </c>
       <c r="D25">
-        <v>1.058605974883285</v>
+        <v>1.03937609097658</v>
       </c>
       <c r="E25">
-        <v>1.066041817749259</v>
+        <v>1.036945867791307</v>
       </c>
       <c r="F25">
-        <v>1.076975290752448</v>
+        <v>1.043412181032655</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054209731221827</v>
+        <v>1.060226422076531</v>
       </c>
       <c r="J25">
-        <v>1.065632780914821</v>
+        <v>1.050153725586854</v>
       </c>
       <c r="K25">
-        <v>1.061588515105306</v>
+        <v>1.051392417477968</v>
       </c>
       <c r="L25">
-        <v>1.069002243211526</v>
+        <v>1.048996495250724</v>
       </c>
       <c r="M25">
-        <v>1.079903802276465</v>
+        <v>1.055371986419962</v>
       </c>
       <c r="N25">
-        <v>1.067146101693509</v>
+        <v>1.051645064331503</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035224931448213</v>
+        <v>1.020203536739905</v>
       </c>
       <c r="D2">
-        <v>1.046040391118579</v>
+        <v>1.0352830390306</v>
       </c>
       <c r="E2">
-        <v>1.044622292300909</v>
+        <v>1.031172029171952</v>
       </c>
       <c r="F2">
-        <v>1.05192971989055</v>
+        <v>1.036502580870346</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.063973225658162</v>
+        <v>1.054957108333858</v>
       </c>
       <c r="J2">
-        <v>1.056400798285938</v>
+        <v>1.041796310035206</v>
       </c>
       <c r="K2">
-        <v>1.056893515785425</v>
+        <v>1.046271771816539</v>
       </c>
       <c r="L2">
-        <v>1.055493094440291</v>
+        <v>1.042213520222571</v>
       </c>
       <c r="M2">
-        <v>1.062710064898978</v>
+        <v>1.047475763322201</v>
       </c>
       <c r="N2">
-        <v>1.05790100859037</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.017428717904097</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.046146250870269</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.043788423500103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041335845736546</v>
+        <v>1.02418137673333</v>
       </c>
       <c r="D3">
-        <v>1.050705826016026</v>
+        <v>1.037963975192047</v>
       </c>
       <c r="E3">
-        <v>1.05000132394978</v>
+        <v>1.0343593239605</v>
       </c>
       <c r="F3">
-        <v>1.057902137190175</v>
+        <v>1.03961155985921</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.066570114551902</v>
+        <v>1.056144028148305</v>
       </c>
       <c r="J3">
-        <v>1.060759748660794</v>
+        <v>1.044033857850013</v>
       </c>
       <c r="K3">
-        <v>1.060728557853146</v>
+        <v>1.048133093453213</v>
       </c>
       <c r="L3">
-        <v>1.060032035147559</v>
+        <v>1.044570664683435</v>
       </c>
       <c r="M3">
-        <v>1.067844110893008</v>
+        <v>1.049761499957818</v>
       </c>
       <c r="N3">
-        <v>1.062266149174736</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.018208397880239</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.047955241918114</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.045101876219864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045189646149149</v>
+        <v>1.026706831410054</v>
       </c>
       <c r="D4">
-        <v>1.053650001564053</v>
+        <v>1.039669247448281</v>
       </c>
       <c r="E4">
-        <v>1.053398316407539</v>
+        <v>1.036388638300768</v>
       </c>
       <c r="F4">
-        <v>1.061675823705305</v>
+        <v>1.041594891521999</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.068196825732243</v>
+        <v>1.056887593799684</v>
       </c>
       <c r="J4">
-        <v>1.063504011271596</v>
+        <v>1.045451196079572</v>
       </c>
       <c r="K4">
-        <v>1.063141326037568</v>
+        <v>1.049311360788879</v>
       </c>
       <c r="L4">
-        <v>1.062892312116488</v>
+        <v>1.046066858704649</v>
       </c>
       <c r="M4">
-        <v>1.0710827781366</v>
+        <v>1.051215940879446</v>
       </c>
       <c r="N4">
-        <v>1.065014308953216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01870223599883</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049106321750941</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.045935889234131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046786860195104</v>
+        <v>1.027761181410346</v>
       </c>
       <c r="D5">
-        <v>1.054870622372156</v>
+        <v>1.040384106401963</v>
       </c>
       <c r="E5">
-        <v>1.054807291148062</v>
+        <v>1.037237456664822</v>
       </c>
       <c r="F5">
-        <v>1.063241524836229</v>
+        <v>1.042424493606366</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068868338601761</v>
+        <v>1.05719723722521</v>
       </c>
       <c r="J5">
-        <v>1.064640211344345</v>
+        <v>1.046043734888745</v>
       </c>
       <c r="K5">
-        <v>1.064139868048974</v>
+        <v>1.049805378611261</v>
       </c>
       <c r="L5">
-        <v>1.064077190355599</v>
+        <v>1.046692438668351</v>
       </c>
       <c r="M5">
-        <v>1.072425223449225</v>
+        <v>1.051824040447572</v>
       </c>
       <c r="N5">
-        <v>1.066152122560393</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.018909570057187</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.049587585974162</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046292306514617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,81 +645,105 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04705372596615</v>
+        <v>1.027942307588739</v>
       </c>
       <c r="D6">
-        <v>1.055074587954007</v>
+        <v>1.040509617192044</v>
       </c>
       <c r="E6">
-        <v>1.05504276783805</v>
+        <v>1.037383657275365</v>
       </c>
       <c r="F6">
-        <v>1.063503223541104</v>
+        <v>1.042566331346033</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068980377544074</v>
+        <v>1.057252292709879</v>
       </c>
       <c r="J6">
-        <v>1.064829980312022</v>
+        <v>1.046147449747873</v>
       </c>
       <c r="K6">
-        <v>1.064306620781317</v>
+        <v>1.049893790725739</v>
       </c>
       <c r="L6">
-        <v>1.064275127463544</v>
+        <v>1.046801165363445</v>
       </c>
       <c r="M6">
-        <v>1.072649530875266</v>
+        <v>1.051928705908568</v>
       </c>
       <c r="N6">
-        <v>1.06634216102177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.018946942613415</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.049670420637009</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046363490972188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04521107686822</v>
+        <v>1.026733740350263</v>
       </c>
       <c r="D7">
-        <v>1.053666377814751</v>
+        <v>1.039694614150284</v>
       </c>
       <c r="E7">
-        <v>1.053417217189999</v>
+        <v>1.036411135756571</v>
       </c>
       <c r="F7">
-        <v>1.06169682496896</v>
+        <v>1.041613893510365</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.068205846451469</v>
+        <v>1.056900880550443</v>
       </c>
       <c r="J7">
-        <v>1.063519260965198</v>
+        <v>1.04547161392096</v>
       </c>
       <c r="K7">
-        <v>1.063154729770556</v>
+        <v>1.049333600603056</v>
       </c>
       <c r="L7">
-        <v>1.062908212602742</v>
+        <v>1.046086246781627</v>
       </c>
       <c r="M7">
-        <v>1.071100789851168</v>
+        <v>1.05123189368078</v>
       </c>
       <c r="N7">
-        <v>1.065029580303133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018712333666671</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.04911894717507</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.045971559932962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037311615188137</v>
+        <v>1.021574135627409</v>
       </c>
       <c r="D8">
-        <v>1.047633035787483</v>
+        <v>1.036214894943355</v>
       </c>
       <c r="E8">
-        <v>1.046458028148378</v>
+        <v>1.032270206814471</v>
       </c>
       <c r="F8">
-        <v>1.053967562409757</v>
+        <v>1.03756924027191</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.06486226884164</v>
+        <v>1.055374701502696</v>
       </c>
       <c r="J8">
-        <v>1.057890199062205</v>
+        <v>1.042574505026598</v>
       </c>
       <c r="K8">
-        <v>1.058204244833126</v>
+        <v>1.046925678241347</v>
       </c>
       <c r="L8">
-        <v>1.057043425771223</v>
+        <v>1.043030103959743</v>
       </c>
       <c r="M8">
-        <v>1.064462955636052</v>
+        <v>1.048263268324948</v>
       </c>
       <c r="N8">
-        <v>1.059392524486575</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01770378021491</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046769503183112</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044273522179385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022569204286944</v>
+        <v>1.012073720455721</v>
       </c>
       <c r="D9">
-        <v>1.036392366965265</v>
+        <v>1.029823564201334</v>
       </c>
       <c r="E9">
-        <v>1.033511337462616</v>
+        <v>1.024691383559884</v>
       </c>
       <c r="F9">
-        <v>1.03960320057231</v>
+        <v>1.030202320324462</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058535846966015</v>
+        <v>1.052478427204438</v>
       </c>
       <c r="J9">
-        <v>1.047349407318104</v>
+        <v>1.037207212077677</v>
       </c>
       <c r="K9">
-        <v>1.048921361743891</v>
+        <v>1.042450621008182</v>
       </c>
       <c r="L9">
-        <v>1.046083146354974</v>
+        <v>1.03739617123294</v>
       </c>
       <c r="M9">
-        <v>1.052084835138448</v>
+        <v>1.042823679642159</v>
       </c>
       <c r="N9">
-        <v>1.048836763609152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015830120174318</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.042464457843901</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.041106242214624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012105358608925</v>
+        <v>1.005550124284744</v>
       </c>
       <c r="D10">
-        <v>1.028432089218027</v>
+        <v>1.02546648373371</v>
       </c>
       <c r="E10">
-        <v>1.02435410827309</v>
+        <v>1.019583235620492</v>
       </c>
       <c r="F10">
-        <v>1.029452295189324</v>
+        <v>1.025322586461437</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053989712540316</v>
+        <v>1.050462273474184</v>
       </c>
       <c r="J10">
-        <v>1.039846787635878</v>
+        <v>1.033545255465548</v>
       </c>
       <c r="K10">
-        <v>1.042306292452057</v>
+        <v>1.039390668457352</v>
       </c>
       <c r="L10">
-        <v>1.03829713700134</v>
+        <v>1.033607687287701</v>
       </c>
       <c r="M10">
-        <v>1.043309389962354</v>
+        <v>1.039249205880722</v>
       </c>
       <c r="N10">
-        <v>1.041323489346414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01456546553002</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039686866735499</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.038959405922126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.007402799977215</v>
+        <v>1.003409036521511</v>
       </c>
       <c r="D11">
-        <v>1.024860225424917</v>
+        <v>1.024118003619751</v>
       </c>
       <c r="E11">
-        <v>1.020247422734132</v>
+        <v>1.018412237147721</v>
       </c>
       <c r="F11">
-        <v>1.024901859830559</v>
+        <v>1.024734652227422</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051934113798237</v>
+        <v>1.04996132403109</v>
       </c>
       <c r="J11">
-        <v>1.036470823958529</v>
+        <v>1.032640680067984</v>
       </c>
       <c r="K11">
-        <v>1.039328064193083</v>
+        <v>1.038598985053327</v>
       </c>
       <c r="L11">
-        <v>1.034797343752145</v>
+        <v>1.032995082948493</v>
       </c>
       <c r="M11">
-        <v>1.039368962101545</v>
+        <v>1.039204712808979</v>
       </c>
       <c r="N11">
-        <v>1.037942731413416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.014361209471121</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.040087054776117</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.038432346129209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.005628281593857</v>
+        <v>1.002876391405745</v>
       </c>
       <c r="D12">
-        <v>1.023513330702334</v>
+        <v>1.023814527358766</v>
       </c>
       <c r="E12">
-        <v>1.01869915907067</v>
+        <v>1.018363553240459</v>
       </c>
       <c r="F12">
-        <v>1.023186555079303</v>
+        <v>1.025074453396677</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051156615996109</v>
+        <v>1.049914526702287</v>
       </c>
       <c r="J12">
-        <v>1.035196337848182</v>
+        <v>1.032559514096357</v>
       </c>
       <c r="K12">
-        <v>1.038203503757904</v>
+        <v>1.038499271513698</v>
       </c>
       <c r="L12">
-        <v>1.033476672060561</v>
+        <v>1.033147194960643</v>
       </c>
       <c r="M12">
-        <v>1.037882622781408</v>
+        <v>1.039736533027954</v>
       </c>
       <c r="N12">
-        <v>1.036666435386606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014415757640479</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.040833413149385</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.038361846043987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.006010213075485</v>
+        <v>1.003561025194865</v>
       </c>
       <c r="D13">
-        <v>1.023803179216184</v>
+        <v>1.02431234237508</v>
       </c>
       <c r="E13">
-        <v>1.019032328568587</v>
+        <v>1.01918970808443</v>
       </c>
       <c r="F13">
-        <v>1.023555658803991</v>
+        <v>1.026175291925419</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05132403846327</v>
+        <v>1.050228879499004</v>
       </c>
       <c r="J13">
-        <v>1.03547067094373</v>
+        <v>1.033123364164233</v>
       </c>
       <c r="K13">
-        <v>1.038445575257106</v>
+        <v>1.038945600805847</v>
       </c>
       <c r="L13">
-        <v>1.033760921069685</v>
+        <v>1.033915440414737</v>
       </c>
       <c r="M13">
-        <v>1.038202501194923</v>
+        <v>1.040775217592025</v>
       </c>
       <c r="N13">
-        <v>1.036941158066615</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014682907388827</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.041930727411828</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.038674931961689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.007256696653497</v>
+        <v>1.004587632922026</v>
       </c>
       <c r="D14">
-        <v>1.024749310020524</v>
+        <v>1.025022106385547</v>
       </c>
       <c r="E14">
-        <v>1.02011991884482</v>
+        <v>1.020156910340161</v>
       </c>
       <c r="F14">
-        <v>1.024760594561871</v>
+        <v>1.027282756318493</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051870135660034</v>
+        <v>1.050610577716945</v>
       </c>
       <c r="J14">
-        <v>1.036365901271018</v>
+        <v>1.03380618180829</v>
       </c>
       <c r="K14">
-        <v>1.039235488689958</v>
+        <v>1.039503453156631</v>
       </c>
       <c r="L14">
-        <v>1.034688607351054</v>
+        <v>1.034724935690001</v>
       </c>
       <c r="M14">
-        <v>1.039246573287997</v>
+        <v>1.041724189398557</v>
       </c>
       <c r="N14">
-        <v>1.037837659723653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014964776350497</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042853801202403</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.039070765862849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008020952344818</v>
+        <v>1.005111167225383</v>
       </c>
       <c r="D15">
-        <v>1.02532953985386</v>
+        <v>1.025378230612314</v>
       </c>
       <c r="E15">
-        <v>1.020786939889582</v>
+        <v>1.02059816387425</v>
       </c>
       <c r="F15">
-        <v>1.025499616904029</v>
+        <v>1.02774305256469</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052204727161638</v>
+        <v>1.050788163377572</v>
       </c>
       <c r="J15">
-        <v>1.036914721729694</v>
+        <v>1.034123038732818</v>
       </c>
       <c r="K15">
-        <v>1.039719715475331</v>
+        <v>1.039767550691169</v>
       </c>
       <c r="L15">
-        <v>1.035257399179136</v>
+        <v>1.035071979571053</v>
       </c>
       <c r="M15">
-        <v>1.039886804569514</v>
+        <v>1.042090946866605</v>
       </c>
       <c r="N15">
-        <v>1.038387259570331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.015084556856105</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.043181139889129</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.039263330229103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012413670209285</v>
+        <v>1.007736114506105</v>
       </c>
       <c r="D16">
-        <v>1.028666394838956</v>
+        <v>1.027123779029181</v>
       </c>
       <c r="E16">
-        <v>1.024623540940167</v>
+        <v>1.022601224152598</v>
       </c>
       <c r="F16">
-        <v>1.029750878486352</v>
+        <v>1.029633298588036</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054124228431957</v>
+        <v>1.051593969042957</v>
       </c>
       <c r="J16">
-        <v>1.040068042869291</v>
+        <v>1.035570310543432</v>
       </c>
       <c r="K16">
-        <v>1.042501448392204</v>
+        <v>1.040984694028722</v>
       </c>
       <c r="L16">
-        <v>1.038526584998618</v>
+        <v>1.036538538848427</v>
       </c>
       <c r="M16">
-        <v>1.043567810787396</v>
+        <v>1.043452193221142</v>
       </c>
       <c r="N16">
-        <v>1.041545058787637</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015570911635168</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.044218447713231</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040127032973883</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015121808599263</v>
+        <v>1.009216521833628</v>
       </c>
       <c r="D17">
-        <v>1.030725125377665</v>
+        <v>1.028095314700766</v>
       </c>
       <c r="E17">
-        <v>1.026991168366752</v>
+        <v>1.023635820934226</v>
       </c>
       <c r="F17">
-        <v>1.032374875884398</v>
+        <v>1.030500496781282</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05530437468392</v>
+        <v>1.052011563222707</v>
       </c>
       <c r="J17">
-        <v>1.042011029339499</v>
+        <v>1.036325072631947</v>
       </c>
       <c r="K17">
-        <v>1.044215056890458</v>
+        <v>1.041628033546972</v>
       </c>
       <c r="L17">
-        <v>1.040541935769024</v>
+        <v>1.0372417428473</v>
       </c>
       <c r="M17">
-        <v>1.045838108579053</v>
+        <v>1.043994072073474</v>
       </c>
       <c r="N17">
-        <v>1.043490804521497</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015797264921745</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.044518077401252</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.040584465319101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016685003493002</v>
+        <v>1.009825208744669</v>
       </c>
       <c r="D18">
-        <v>1.031913985315659</v>
+        <v>1.028465042734924</v>
       </c>
       <c r="E18">
-        <v>1.028358623955895</v>
+        <v>1.023881146648974</v>
       </c>
       <c r="F18">
-        <v>1.033890580595595</v>
+        <v>1.030484373540576</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055984394200176</v>
+        <v>1.052117390995855</v>
       </c>
       <c r="J18">
-        <v>1.043132160089753</v>
+        <v>1.036522102146245</v>
       </c>
       <c r="K18">
-        <v>1.045203677635056</v>
+        <v>1.041809878613012</v>
       </c>
       <c r="L18">
-        <v>1.041705168860525</v>
+        <v>1.037300010807246</v>
       </c>
       <c r="M18">
-        <v>1.047148882440762</v>
+        <v>1.043796865846176</v>
       </c>
       <c r="N18">
-        <v>1.044613527406011</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.015804869366923</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.044125192938872</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.040701465397165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017215285256706</v>
+        <v>1.009653299650378</v>
       </c>
       <c r="D19">
-        <v>1.03231736599214</v>
+        <v>1.028305582179205</v>
       </c>
       <c r="E19">
-        <v>1.028822639922488</v>
+        <v>1.023408896740982</v>
       </c>
       <c r="F19">
-        <v>1.034404932735716</v>
+        <v>1.029653440924822</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056214873792364</v>
+        <v>1.051951206693719</v>
       </c>
       <c r="J19">
-        <v>1.043512410400965</v>
+        <v>1.036223986918994</v>
       </c>
       <c r="K19">
-        <v>1.045538957994703</v>
+        <v>1.041590956105611</v>
       </c>
       <c r="L19">
-        <v>1.042099757540643</v>
+        <v>1.036772991240564</v>
       </c>
       <c r="M19">
-        <v>1.047593585709661</v>
+        <v>1.042917314678868</v>
       </c>
       <c r="N19">
-        <v>1.044994317716281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015625506796309</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.043105195941245</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.040553040505247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014832962750501</v>
+        <v>1.007277584993068</v>
       </c>
       <c r="D20">
-        <v>1.030505489866225</v>
+        <v>1.02663654049589</v>
       </c>
       <c r="E20">
-        <v>1.026738556008453</v>
+        <v>1.020939434201497</v>
       </c>
       <c r="F20">
-        <v>1.032094891881501</v>
+        <v>1.026612890820876</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055178624814122</v>
+        <v>1.051013322677448</v>
       </c>
       <c r="J20">
-        <v>1.04180383469114</v>
+        <v>1.034530822050042</v>
       </c>
       <c r="K20">
-        <v>1.044032338502841</v>
+        <v>1.040226648654593</v>
       </c>
       <c r="L20">
-        <v>1.040326988285555</v>
+        <v>1.034623817580764</v>
       </c>
       <c r="M20">
-        <v>1.045595929374162</v>
+        <v>1.040203387550823</v>
       </c>
       <c r="N20">
-        <v>1.043283315632972</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014915290466258</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040431466233549</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.039592337065012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.006890422156358</v>
+        <v>1.002227210599435</v>
       </c>
       <c r="D21">
-        <v>1.024471265833745</v>
+        <v>1.023253967334162</v>
       </c>
       <c r="E21">
-        <v>1.019800295194702</v>
+        <v>1.016901460380099</v>
       </c>
       <c r="F21">
-        <v>1.024406478273299</v>
+        <v>1.022660315875696</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05170971637221</v>
+        <v>1.049401010891895</v>
       </c>
       <c r="J21">
-        <v>1.036102856021583</v>
+        <v>1.031632107293331</v>
       </c>
       <c r="K21">
-        <v>1.039003394734939</v>
+        <v>1.037807784058776</v>
       </c>
       <c r="L21">
-        <v>1.03441601005102</v>
+        <v>1.031569551505038</v>
       </c>
       <c r="M21">
-        <v>1.03893975976727</v>
+        <v>1.037224733627086</v>
       </c>
       <c r="N21">
-        <v>1.037574240919792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013893527629962</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.038033265908465</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.037885344102263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.001734771166414</v>
+        <v>0.9990157157635013</v>
       </c>
       <c r="D22">
-        <v>1.020559975415141</v>
+        <v>1.021105744989189</v>
       </c>
       <c r="E22">
-        <v>1.015304777355625</v>
+        <v>1.014371143189496</v>
       </c>
       <c r="F22">
-        <v>1.019426400436812</v>
+        <v>1.020223998804186</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049447427104913</v>
+        <v>1.048371148063743</v>
       </c>
       <c r="J22">
-        <v>1.032399011620125</v>
+        <v>1.029799170797828</v>
       </c>
       <c r="K22">
-        <v>1.035734849620584</v>
+        <v>1.036270375919316</v>
       </c>
       <c r="L22">
-        <v>1.03057902085442</v>
+        <v>1.029663181478054</v>
       </c>
       <c r="M22">
-        <v>1.034622595929248</v>
+        <v>1.035405185904132</v>
       </c>
       <c r="N22">
-        <v>1.033865136634448</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013249826960705</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.036593209478393</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.036784889630035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.004483941871072</v>
+        <v>1.000712657635964</v>
       </c>
       <c r="D23">
-        <v>1.022645038591408</v>
+        <v>1.022234089554653</v>
       </c>
       <c r="E23">
-        <v>1.017701133012528</v>
+        <v>1.015706106313282</v>
       </c>
       <c r="F23">
-        <v>1.022080921913726</v>
+        <v>1.021511633370029</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050654725821172</v>
+        <v>1.048911791561308</v>
       </c>
       <c r="J23">
-        <v>1.034374307169827</v>
+        <v>1.030763187890442</v>
       </c>
       <c r="K23">
-        <v>1.037478112331048</v>
+        <v>1.037074667647272</v>
       </c>
       <c r="L23">
-        <v>1.032625011764313</v>
+        <v>1.030666954360049</v>
       </c>
       <c r="M23">
-        <v>1.036924299015148</v>
+        <v>1.03636542331753</v>
       </c>
       <c r="N23">
-        <v>1.035843237330399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013585029999217</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.037353176751616</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.037343954651321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014963530340593</v>
+        <v>1.007269482504051</v>
       </c>
       <c r="D24">
-        <v>1.0306047705675</v>
+        <v>1.026614506574911</v>
       </c>
       <c r="E24">
-        <v>1.026852742389045</v>
+        <v>1.020883011159703</v>
       </c>
       <c r="F24">
-        <v>1.032221450293908</v>
+        <v>1.02651021312209</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05523547147538</v>
+        <v>1.050987767437548</v>
       </c>
       <c r="J24">
-        <v>1.041897494573041</v>
+        <v>1.03449054304698</v>
       </c>
       <c r="K24">
-        <v>1.044114934666228</v>
+        <v>1.040189824064823</v>
       </c>
       <c r="L24">
-        <v>1.040424151667599</v>
+        <v>1.034553060846215</v>
       </c>
       <c r="M24">
-        <v>1.045705401188709</v>
+        <v>1.040087242259578</v>
       </c>
       <c r="N24">
-        <v>1.043377108522648</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014886711122073</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040298753770874</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.039539031558031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026485986133135</v>
+        <v>1.014598814987207</v>
       </c>
       <c r="D25">
-        <v>1.03937609097658</v>
+        <v>1.031529827535197</v>
       </c>
       <c r="E25">
-        <v>1.036945867791307</v>
+        <v>1.026701686398424</v>
       </c>
       <c r="F25">
-        <v>1.043412181032655</v>
+        <v>1.03214805257534</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060226422076531</v>
+        <v>1.053265137895621</v>
       </c>
       <c r="J25">
-        <v>1.050153725586854</v>
+        <v>1.038644664900248</v>
       </c>
       <c r="K25">
-        <v>1.051392417477968</v>
+        <v>1.043657634904012</v>
       </c>
       <c r="L25">
-        <v>1.048996495250724</v>
+        <v>1.038899166276871</v>
       </c>
       <c r="M25">
-        <v>1.055371986419962</v>
+        <v>1.044266998243517</v>
       </c>
       <c r="N25">
-        <v>1.051645064331503</v>
+        <v>1.016337141485105</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.043606743745679</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.041988077187686</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_46/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020203536739905</v>
+        <v>1.018886399301924</v>
       </c>
       <c r="D2">
-        <v>1.0352830390306</v>
+        <v>1.033356763788658</v>
       </c>
       <c r="E2">
-        <v>1.031172029171952</v>
+        <v>1.030181893857901</v>
       </c>
       <c r="F2">
-        <v>1.036502580870346</v>
+        <v>1.035799104258689</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.054957108333858</v>
+        <v>1.053896033168503</v>
       </c>
       <c r="J2">
-        <v>1.041796310035206</v>
+        <v>1.040516530831063</v>
       </c>
       <c r="K2">
-        <v>1.046271771816539</v>
+        <v>1.044370151911674</v>
       </c>
       <c r="L2">
-        <v>1.042213520222571</v>
+        <v>1.041236170440764</v>
       </c>
       <c r="M2">
-        <v>1.047475763322201</v>
+        <v>1.046781251132259</v>
       </c>
       <c r="N2">
-        <v>1.017428717904097</v>
+        <v>1.01768545552233</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.046146250870269</v>
+        <v>1.045596595093901</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043788423500103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04245254738057</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023749502569358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02418137673333</v>
+        <v>1.022660927426883</v>
       </c>
       <c r="D3">
-        <v>1.037963975192047</v>
+        <v>1.035795394415254</v>
       </c>
       <c r="E3">
-        <v>1.0343593239605</v>
+        <v>1.033205285450714</v>
       </c>
       <c r="F3">
-        <v>1.03961155985921</v>
+        <v>1.038792478848245</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056144028148305</v>
+        <v>1.054938763103283</v>
       </c>
       <c r="J3">
-        <v>1.044033857850013</v>
+        <v>1.04255233327433</v>
       </c>
       <c r="K3">
-        <v>1.048133093453213</v>
+        <v>1.045989870395143</v>
       </c>
       <c r="L3">
-        <v>1.044570664683435</v>
+        <v>1.043430220894395</v>
       </c>
       <c r="M3">
-        <v>1.049761499957818</v>
+        <v>1.04895194378543</v>
       </c>
       <c r="N3">
-        <v>1.018208397880239</v>
+        <v>1.018243538545738</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047955241918114</v>
+        <v>1.047314538747333</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045101876219864</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043594891171208</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024088078191349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026706831410054</v>
+        <v>1.025058697130472</v>
       </c>
       <c r="D4">
-        <v>1.039669247448281</v>
+        <v>1.037347768410975</v>
       </c>
       <c r="E4">
-        <v>1.036388638300768</v>
+        <v>1.035131666375842</v>
       </c>
       <c r="F4">
-        <v>1.041594891521999</v>
+        <v>1.040703332933804</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.056887593799684</v>
+        <v>1.055591218569868</v>
       </c>
       <c r="J4">
-        <v>1.045451196079572</v>
+        <v>1.043842416421609</v>
       </c>
       <c r="K4">
-        <v>1.049311360788879</v>
+        <v>1.047015403398702</v>
       </c>
       <c r="L4">
-        <v>1.046066858704649</v>
+        <v>1.044823795837919</v>
       </c>
       <c r="M4">
-        <v>1.051215940879446</v>
+        <v>1.050334122857254</v>
       </c>
       <c r="N4">
-        <v>1.01870223599883</v>
+        <v>1.01859731671935</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049106321750941</v>
+        <v>1.048408429786753</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045935889234131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044320992621901</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024300055974438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027761181410346</v>
+        <v>1.026059872553318</v>
       </c>
       <c r="D5">
-        <v>1.040384106401963</v>
+        <v>1.037998929619386</v>
       </c>
       <c r="E5">
-        <v>1.037237456664822</v>
+        <v>1.035937575599196</v>
       </c>
       <c r="F5">
-        <v>1.042424493606366</v>
+        <v>1.041502747936288</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05719723722521</v>
+        <v>1.055862848182848</v>
       </c>
       <c r="J5">
-        <v>1.046043734888745</v>
+        <v>1.044381843480185</v>
       </c>
       <c r="K5">
-        <v>1.049805378611261</v>
+        <v>1.047445731060022</v>
       </c>
       <c r="L5">
-        <v>1.046692438668351</v>
+        <v>1.045406556389666</v>
       </c>
       <c r="M5">
-        <v>1.051824040447572</v>
+        <v>1.050912096316347</v>
       </c>
       <c r="N5">
-        <v>1.018909570057187</v>
+        <v>1.018745885284031</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049587585974162</v>
+        <v>1.048865851939345</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046292306514617</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044633091031655</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024389099035165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027942307588739</v>
+        <v>1.026231658431099</v>
       </c>
       <c r="D6">
-        <v>1.040509617192044</v>
+        <v>1.038113412255358</v>
       </c>
       <c r="E6">
-        <v>1.037383657275365</v>
+        <v>1.036076182234702</v>
       </c>
       <c r="F6">
-        <v>1.042566331346033</v>
+        <v>1.04163924248812</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057252292709879</v>
+        <v>1.055911287251861</v>
       </c>
       <c r="J6">
-        <v>1.046147449747873</v>
+        <v>1.044476231703451</v>
       </c>
       <c r="K6">
-        <v>1.049893790725739</v>
+        <v>1.047523116398354</v>
       </c>
       <c r="L6">
-        <v>1.046801165363445</v>
+        <v>1.045507706048252</v>
       </c>
       <c r="M6">
-        <v>1.051928705908568</v>
+        <v>1.051011430163325</v>
       </c>
       <c r="N6">
-        <v>1.018946942613415</v>
+        <v>1.018772629363226</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049670420637009</v>
+        <v>1.048944467116214</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046363490972188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044697351920149</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024405898383174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026733740350263</v>
+        <v>1.025092537317059</v>
       </c>
       <c r="D7">
-        <v>1.039694614150284</v>
+        <v>1.037377832565503</v>
       </c>
       <c r="E7">
-        <v>1.036411135756571</v>
+        <v>1.035159930223733</v>
       </c>
       <c r="F7">
-        <v>1.041613893510365</v>
+        <v>1.040726428376833</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.056900880550443</v>
+        <v>1.055608036903017</v>
       </c>
       <c r="J7">
-        <v>1.04547161392096</v>
+        <v>1.043869582649215</v>
       </c>
       <c r="K7">
-        <v>1.049333600603056</v>
+        <v>1.047042278879989</v>
       </c>
       <c r="L7">
-        <v>1.046086246781627</v>
+        <v>1.04484888105548</v>
       </c>
       <c r="M7">
-        <v>1.05123189368078</v>
+        <v>1.050354120686441</v>
       </c>
       <c r="N7">
-        <v>1.018712333666671</v>
+        <v>1.018633334170898</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04911894717507</v>
+        <v>1.048424256556393</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045971559932962</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04436194947981</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02430884106862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021574135627409</v>
+        <v>1.020213165249641</v>
       </c>
       <c r="D8">
-        <v>1.036214894943355</v>
+        <v>1.034224867386508</v>
       </c>
       <c r="E8">
-        <v>1.032270206814471</v>
+        <v>1.031245675855293</v>
       </c>
       <c r="F8">
-        <v>1.03756924027191</v>
+        <v>1.036841583251715</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055374701502696</v>
+        <v>1.054278101558724</v>
       </c>
       <c r="J8">
-        <v>1.042574505026598</v>
+        <v>1.041250843926891</v>
       </c>
       <c r="K8">
-        <v>1.046925678241347</v>
+        <v>1.044960369436062</v>
       </c>
       <c r="L8">
-        <v>1.043030103959743</v>
+        <v>1.042018405693453</v>
       </c>
       <c r="M8">
-        <v>1.048263268324948</v>
+        <v>1.047544606718835</v>
       </c>
       <c r="N8">
-        <v>1.01770378021491</v>
+        <v>1.017970181201927</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046769503183112</v>
+        <v>1.046200735378428</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044273522179385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042894889604951</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023879305084152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012073720455721</v>
+        <v>1.011211982312684</v>
       </c>
       <c r="D9">
-        <v>1.029823564201334</v>
+        <v>1.028421493446137</v>
       </c>
       <c r="E9">
-        <v>1.024691383559884</v>
+        <v>1.024069689226563</v>
       </c>
       <c r="F9">
-        <v>1.030202320324462</v>
+        <v>1.029759667686436</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052478427204438</v>
+        <v>1.051731367887473</v>
       </c>
       <c r="J9">
-        <v>1.037207212077677</v>
+        <v>1.036374935585979</v>
       </c>
       <c r="K9">
-        <v>1.042450621008182</v>
+        <v>1.041069687603115</v>
       </c>
       <c r="L9">
-        <v>1.03739617123294</v>
+        <v>1.036783960408949</v>
       </c>
       <c r="M9">
-        <v>1.042823679642159</v>
+        <v>1.042387686191114</v>
       </c>
       <c r="N9">
-        <v>1.015830120174318</v>
+        <v>1.016642114727829</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042464457843901</v>
+        <v>1.042119399114936</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041106242214624</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040140519211596</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023050697376365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005550124284744</v>
+        <v>1.005075024719459</v>
       </c>
       <c r="D10">
-        <v>1.02546648373371</v>
+        <v>1.024499307781047</v>
       </c>
       <c r="E10">
-        <v>1.019583235620492</v>
+        <v>1.019274120481495</v>
       </c>
       <c r="F10">
-        <v>1.025322586461437</v>
+        <v>1.025102149783933</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050462273474184</v>
+        <v>1.049976269817992</v>
       </c>
       <c r="J10">
-        <v>1.033545255465548</v>
+        <v>1.033088725220658</v>
       </c>
       <c r="K10">
-        <v>1.039390668457352</v>
+        <v>1.038439873784839</v>
       </c>
       <c r="L10">
-        <v>1.033607687287701</v>
+        <v>1.033303881705717</v>
       </c>
       <c r="M10">
-        <v>1.039249205880722</v>
+        <v>1.039032500631724</v>
       </c>
       <c r="N10">
-        <v>1.01456546553002</v>
+        <v>1.015870939314476</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039686866735499</v>
+        <v>1.039515369509078</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.038959405922126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038299501493088</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022490936101609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003409036521511</v>
+        <v>1.003085316822758</v>
       </c>
       <c r="D11">
-        <v>1.024118003619751</v>
+        <v>1.023306338512698</v>
       </c>
       <c r="E11">
-        <v>1.018412237147721</v>
+        <v>1.018219360061851</v>
       </c>
       <c r="F11">
-        <v>1.024734652227422</v>
+        <v>1.024597240333812</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04996132403109</v>
+        <v>1.049572277247088</v>
       </c>
       <c r="J11">
-        <v>1.032640680067984</v>
+        <v>1.032330303912097</v>
       </c>
       <c r="K11">
-        <v>1.038598985053327</v>
+        <v>1.037801720577362</v>
       </c>
       <c r="L11">
-        <v>1.032995082948493</v>
+        <v>1.032805675197679</v>
       </c>
       <c r="M11">
-        <v>1.039204712808979</v>
+        <v>1.039069733004688</v>
       </c>
       <c r="N11">
-        <v>1.014361209471121</v>
+        <v>1.015968640176788</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040087054776117</v>
+        <v>1.039980287383397</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.038432346129209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037884214371792</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022418575335227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002876391405745</v>
+        <v>1.002583702381568</v>
       </c>
       <c r="D12">
-        <v>1.023814527358766</v>
+        <v>1.023033349513732</v>
       </c>
       <c r="E12">
-        <v>1.018363553240459</v>
+        <v>1.01818940122901</v>
       </c>
       <c r="F12">
-        <v>1.025074453396677</v>
+        <v>1.024950496590975</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049914526702287</v>
+        <v>1.049545202752037</v>
       </c>
       <c r="J12">
-        <v>1.032559514096357</v>
+        <v>1.03227911637554</v>
       </c>
       <c r="K12">
-        <v>1.038499271513698</v>
+        <v>1.037732182549105</v>
       </c>
       <c r="L12">
-        <v>1.033147194960643</v>
+        <v>1.032976225332506</v>
       </c>
       <c r="M12">
-        <v>1.039736533027954</v>
+        <v>1.03961480284199</v>
       </c>
       <c r="N12">
-        <v>1.014415757640479</v>
+        <v>1.016109929808654</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040833413149385</v>
+        <v>1.040737158503833</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.038361846043987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037835050117704</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022447354017626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003561025194865</v>
+        <v>1.003194930117484</v>
       </c>
       <c r="D13">
-        <v>1.02431234237508</v>
+        <v>1.023457410708116</v>
       </c>
       <c r="E13">
-        <v>1.01918970808443</v>
+        <v>1.018949478628437</v>
       </c>
       <c r="F13">
-        <v>1.026175291925419</v>
+        <v>1.026004470704944</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050228879499004</v>
+        <v>1.049814014825188</v>
       </c>
       <c r="J13">
-        <v>1.033123364164233</v>
+        <v>1.032772558701559</v>
       </c>
       <c r="K13">
-        <v>1.038945600805847</v>
+        <v>1.038106018760315</v>
       </c>
       <c r="L13">
-        <v>1.033915440414737</v>
+        <v>1.033679577282825</v>
       </c>
       <c r="M13">
-        <v>1.040775217592025</v>
+        <v>1.040607446239561</v>
       </c>
       <c r="N13">
-        <v>1.014682907388827</v>
+        <v>1.016264158453178</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041930727411828</v>
+        <v>1.04179810020504</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038674931961689</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038096633565299</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02256129363929</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.004587632922026</v>
+        <v>1.004124272410707</v>
       </c>
       <c r="D14">
-        <v>1.025022106385547</v>
+        <v>1.024069771989925</v>
       </c>
       <c r="E14">
-        <v>1.020156910340161</v>
+        <v>1.019833760293111</v>
       </c>
       <c r="F14">
-        <v>1.027282756318493</v>
+        <v>1.027053132886823</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050610577716945</v>
+        <v>1.050135133998224</v>
       </c>
       <c r="J14">
-        <v>1.03380618180829</v>
+        <v>1.033361888076478</v>
       </c>
       <c r="K14">
-        <v>1.039503453156631</v>
+        <v>1.038568001482059</v>
       </c>
       <c r="L14">
-        <v>1.034724935690001</v>
+        <v>1.034407580951735</v>
       </c>
       <c r="M14">
-        <v>1.041724189398557</v>
+        <v>1.041498609769587</v>
       </c>
       <c r="N14">
-        <v>1.014964776350497</v>
+        <v>1.01637902811767</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042853801202403</v>
+        <v>1.042675499125487</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039070765862849</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038424817694009</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022679927073256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.005111167225383</v>
+        <v>1.004601503482493</v>
       </c>
       <c r="D15">
-        <v>1.025378230612314</v>
+        <v>1.024379452723476</v>
       </c>
       <c r="E15">
-        <v>1.02059816387425</v>
+        <v>1.020236661935344</v>
       </c>
       <c r="F15">
-        <v>1.02774305256469</v>
+        <v>1.027486232326853</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050788163377572</v>
+        <v>1.050283755064964</v>
       </c>
       <c r="J15">
-        <v>1.034123038732818</v>
+        <v>1.033634161167679</v>
       </c>
       <c r="K15">
-        <v>1.039767550691169</v>
+        <v>1.038786343374182</v>
       </c>
       <c r="L15">
-        <v>1.035071979571053</v>
+        <v>1.034716909578253</v>
       </c>
       <c r="M15">
-        <v>1.042090946866605</v>
+        <v>1.041838613523403</v>
       </c>
       <c r="N15">
-        <v>1.015084556856105</v>
+        <v>1.016416624986931</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043181139889129</v>
+        <v>1.042981696423441</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.039263330229103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038585601025388</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022730773677681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007736114506105</v>
+        <v>1.007018983116755</v>
       </c>
       <c r="D16">
-        <v>1.027123779029181</v>
+        <v>1.025913049806024</v>
       </c>
       <c r="E16">
-        <v>1.022601224152598</v>
+        <v>1.022073224642083</v>
       </c>
       <c r="F16">
-        <v>1.029633298588036</v>
+        <v>1.029258396661871</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051593969042957</v>
+        <v>1.050957754831175</v>
       </c>
       <c r="J16">
-        <v>1.035570310543432</v>
+        <v>1.034880957161214</v>
       </c>
       <c r="K16">
-        <v>1.040984694028722</v>
+        <v>1.0397943325423</v>
       </c>
       <c r="L16">
-        <v>1.036538538848427</v>
+        <v>1.036019515765175</v>
       </c>
       <c r="M16">
-        <v>1.043452193221142</v>
+        <v>1.043083552022039</v>
       </c>
       <c r="N16">
-        <v>1.015570911635168</v>
+        <v>1.016536027390597</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044218447713231</v>
+        <v>1.043927066542159</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040127032973883</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.0393017237514</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022937737709696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009216521833628</v>
+        <v>1.008400481341107</v>
       </c>
       <c r="D17">
-        <v>1.028095314700766</v>
+        <v>1.026779429804827</v>
       </c>
       <c r="E17">
-        <v>1.023635820934226</v>
+        <v>1.023030590990307</v>
       </c>
       <c r="F17">
-        <v>1.030500496781282</v>
+        <v>1.030070775247926</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052011563222707</v>
+        <v>1.051310628932683</v>
       </c>
       <c r="J17">
-        <v>1.036325072631947</v>
+        <v>1.035539625504075</v>
       </c>
       <c r="K17">
-        <v>1.041628033546972</v>
+        <v>1.040333664022576</v>
       </c>
       <c r="L17">
-        <v>1.0372417428473</v>
+        <v>1.036646511116715</v>
       </c>
       <c r="M17">
-        <v>1.043994072073474</v>
+        <v>1.043571326891459</v>
       </c>
       <c r="N17">
-        <v>1.015797264921745</v>
+        <v>1.016597458506867</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044518077401252</v>
+        <v>1.044183898243384</v>
       </c>
       <c r="Q17">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R17">
-        <v>1.040584465319101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039685866741195</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023035994448027</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.009825208744669</v>
+        <v>1.008984796160962</v>
       </c>
       <c r="D18">
-        <v>1.028465042734924</v>
+        <v>1.027119856587732</v>
       </c>
       <c r="E18">
-        <v>1.023881146648974</v>
+        <v>1.023260420272126</v>
       </c>
       <c r="F18">
-        <v>1.030484373540576</v>
+        <v>1.030043431813469</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052117390995855</v>
+        <v>1.051398823066294</v>
       </c>
       <c r="J18">
-        <v>1.036522102146245</v>
+        <v>1.035712613806852</v>
       </c>
       <c r="K18">
-        <v>1.041809878613012</v>
+        <v>1.040486328841016</v>
       </c>
       <c r="L18">
-        <v>1.037300010807246</v>
+        <v>1.036689374436761</v>
       </c>
       <c r="M18">
-        <v>1.043796865846176</v>
+        <v>1.043362972796636</v>
       </c>
       <c r="N18">
-        <v>1.015804869366923</v>
+        <v>1.016564269582863</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044125192938872</v>
+        <v>1.043782130353761</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040701465397165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039781097101906</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023038269681586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009653299650378</v>
+        <v>1.008847799890018</v>
       </c>
       <c r="D19">
-        <v>1.028305582179205</v>
+        <v>1.02699396418666</v>
       </c>
       <c r="E19">
-        <v>1.023408896740982</v>
+        <v>1.022821547203476</v>
       </c>
       <c r="F19">
-        <v>1.029653440924822</v>
+        <v>1.029235778158436</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051951206693719</v>
+        <v>1.051253489800823</v>
       </c>
       <c r="J19">
-        <v>1.036223986918994</v>
+        <v>1.035447966517703</v>
       </c>
       <c r="K19">
-        <v>1.041590956105611</v>
+        <v>1.04030032967662</v>
       </c>
       <c r="L19">
-        <v>1.036772991240564</v>
+        <v>1.036195149111608</v>
       </c>
       <c r="M19">
-        <v>1.042917314678868</v>
+        <v>1.042506306482383</v>
       </c>
       <c r="N19">
-        <v>1.015625506796309</v>
+        <v>1.016432066085707</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043105195941245</v>
+        <v>1.042780121993074</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040553040505247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039656577245283</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022958971361662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.007277584993068</v>
+        <v>1.006672283204011</v>
       </c>
       <c r="D20">
-        <v>1.02663654049589</v>
+        <v>1.025533921841236</v>
       </c>
       <c r="E20">
-        <v>1.020939434201497</v>
+        <v>1.020523214132512</v>
       </c>
       <c r="F20">
-        <v>1.026612890820876</v>
+        <v>1.026316198992211</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051013322677448</v>
+        <v>1.050443735041926</v>
       </c>
       <c r="J20">
-        <v>1.034530822050042</v>
+        <v>1.033948400572163</v>
       </c>
       <c r="K20">
-        <v>1.040226648654593</v>
+        <v>1.039142170875128</v>
       </c>
       <c r="L20">
-        <v>1.034623817580764</v>
+        <v>1.034214538240368</v>
       </c>
       <c r="M20">
-        <v>1.040203387550823</v>
+        <v>1.039911572414745</v>
       </c>
       <c r="N20">
-        <v>1.014915290466258</v>
+        <v>1.016008705539962</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040431466233549</v>
+        <v>1.040200525464483</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039592337065012</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.038842021312683</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022644367825758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002227210599435</v>
+        <v>1.002052685671138</v>
       </c>
       <c r="D21">
-        <v>1.023253967334162</v>
+        <v>1.022587057217619</v>
       </c>
       <c r="E21">
-        <v>1.016901460380099</v>
+        <v>1.016841690236591</v>
       </c>
       <c r="F21">
-        <v>1.022660315875696</v>
+        <v>1.022617645868006</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049401010891895</v>
+        <v>1.049102819567231</v>
       </c>
       <c r="J21">
-        <v>1.031632107293331</v>
+        <v>1.031464834933607</v>
       </c>
       <c r="K21">
-        <v>1.037807784058776</v>
+        <v>1.037152784280564</v>
       </c>
       <c r="L21">
-        <v>1.031569551505038</v>
+        <v>1.031510865378179</v>
       </c>
       <c r="M21">
-        <v>1.037224733627086</v>
+        <v>1.037182826207268</v>
       </c>
       <c r="N21">
-        <v>1.013893527629962</v>
+        <v>1.015755052197466</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038033265908465</v>
+        <v>1.038000098880703</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037885344102263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.037439015703509</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022219964990736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9990157157635013</v>
+        <v>0.9991144802034029</v>
       </c>
       <c r="D22">
-        <v>1.021105744989189</v>
+        <v>1.020715133546602</v>
       </c>
       <c r="E22">
-        <v>1.014371143189496</v>
+        <v>1.014538191811788</v>
       </c>
       <c r="F22">
-        <v>1.020223998804186</v>
+        <v>1.020343358884527</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048371148063743</v>
+        <v>1.048244518295164</v>
       </c>
       <c r="J22">
-        <v>1.029799170797828</v>
+        <v>1.029893588756181</v>
       </c>
       <c r="K22">
-        <v>1.036270375919316</v>
+        <v>1.035887094211609</v>
       </c>
       <c r="L22">
-        <v>1.029663181478054</v>
+        <v>1.029827043055849</v>
       </c>
       <c r="M22">
-        <v>1.035405185904132</v>
+        <v>1.035522302624382</v>
       </c>
       <c r="N22">
-        <v>1.013249826960705</v>
+        <v>1.015591572688215</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036593209478393</v>
+        <v>1.036685900009966</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.036784889630035</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.036529378070398</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021949439885766</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.000712657635964</v>
+        <v>1.000653230652021</v>
       </c>
       <c r="D23">
-        <v>1.022234089554653</v>
+        <v>1.021686923444652</v>
       </c>
       <c r="E23">
-        <v>1.015706106313282</v>
+        <v>1.015741418272559</v>
       </c>
       <c r="F23">
-        <v>1.021511633370029</v>
+        <v>1.021536852892416</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048911791561308</v>
+        <v>1.048687144225591</v>
       </c>
       <c r="J23">
-        <v>1.030763187890442</v>
+        <v>1.030706298527157</v>
       </c>
       <c r="K23">
-        <v>1.037074667647272</v>
+        <v>1.036537505554783</v>
       </c>
       <c r="L23">
-        <v>1.030666954360049</v>
+        <v>1.030701610316367</v>
       </c>
       <c r="M23">
-        <v>1.03636542331753</v>
+        <v>1.0363901812302</v>
       </c>
       <c r="N23">
-        <v>1.013585029999217</v>
+        <v>1.015629148244642</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.037353176751616</v>
+        <v>1.037372771065291</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.037343954651321</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036978698806033</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022084642942593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.007269482504051</v>
+        <v>1.00666876457463</v>
       </c>
       <c r="D24">
-        <v>1.026614506574911</v>
+        <v>1.025515729310702</v>
       </c>
       <c r="E24">
-        <v>1.020883011159703</v>
+        <v>1.020471515064992</v>
       </c>
       <c r="F24">
-        <v>1.02651021312209</v>
+        <v>1.026216845918346</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050987767437548</v>
+        <v>1.050420707979681</v>
       </c>
       <c r="J24">
-        <v>1.03449054304698</v>
+        <v>1.033912500697471</v>
       </c>
       <c r="K24">
-        <v>1.040189824064823</v>
+        <v>1.039109102252105</v>
       </c>
       <c r="L24">
-        <v>1.034553060846215</v>
+        <v>1.034148418845431</v>
       </c>
       <c r="M24">
-        <v>1.040087242259578</v>
+        <v>1.039798692151118</v>
       </c>
       <c r="N24">
-        <v>1.014886711122073</v>
+        <v>1.015985451105422</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040298753770874</v>
+        <v>1.040070385606756</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039539031558031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038788693093071</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022628577598848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014598814987207</v>
+        <v>1.01359068739385</v>
       </c>
       <c r="D25">
-        <v>1.031529827535197</v>
+        <v>1.029961716892049</v>
       </c>
       <c r="E25">
-        <v>1.026701686398424</v>
+        <v>1.025961075026987</v>
       </c>
       <c r="F25">
-        <v>1.03214805257534</v>
+        <v>1.031621079956849</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053265137895621</v>
+        <v>1.052418339569632</v>
       </c>
       <c r="J25">
-        <v>1.038644664900248</v>
+        <v>1.037669170274655</v>
       </c>
       <c r="K25">
-        <v>1.043657634904012</v>
+        <v>1.042112062157471</v>
       </c>
       <c r="L25">
-        <v>1.038899166276871</v>
+        <v>1.038169315863345</v>
       </c>
       <c r="M25">
-        <v>1.044266998243517</v>
+        <v>1.043747578458175</v>
       </c>
       <c r="N25">
-        <v>1.016337141485105</v>
+        <v>1.016966660424017</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043606743745679</v>
+        <v>1.043195659457552</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041988077187686</v>
+        <v>1.040908756429423</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023277109770633</v>
       </c>
     </row>
   </sheetData>
